--- a/simulation/MC results feb 2019.xlsx
+++ b/simulation/MC results feb 2019.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="30" windowWidth="16260" windowHeight="5850"/>
+    <workbookView xWindow="14265" yWindow="30" windowWidth="16260" windowHeight="5850" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MC results (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="MC results (500it)" sheetId="2" r:id="rId2"/>
+    <sheet name="MC results (100it_conv)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="32">
   <si>
     <t>True model:</t>
   </si>
@@ -107,6 +109,15 @@
   <si>
     <t>Sign test (BIC)</t>
   </si>
+  <si>
+    <t>Leftmost model params</t>
+  </si>
+  <si>
+    <t>Rightmost model params</t>
+  </si>
+  <si>
+    <t>PRMSE</t>
+  </si>
 </sst>
 </file>
 
@@ -115,7 +126,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -145,6 +156,12 @@
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -233,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -300,6 +317,19 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -634,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -724,117 +754,117 @@
     </row>
     <row r="4" spans="1:30" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="30" t="s">
+      <c r="R4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
     </row>
     <row r="5" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="33" t="s">
+      <c r="R5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
       <c r="X5" s="5"/>
-      <c r="Y5" s="33" t="s">
+      <c r="Y5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
     </row>
     <row r="6" spans="1:30" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="25"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
     </row>
     <row r="7" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
@@ -1173,35 +1203,35 @@
       <c r="A12" s="1"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="26"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="31"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
@@ -2605,32 +2635,32 @@
     </row>
     <row r="30" spans="1:30" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="27"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="32"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
@@ -3246,4 +3276,6033 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AD59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="P58" sqref="P58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="12" max="15" width="5" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" customWidth="1"/>
+    <col min="18" max="19" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5703125" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:30" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+    </row>
+    <row r="4" spans="1:30" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+    </row>
+    <row r="5" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+    </row>
+    <row r="6" spans="1:30" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+    </row>
+    <row r="7" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8">
+        <v>-1.1565249485485461E-4</v>
+      </c>
+      <c r="E8">
+        <v>2.2582197045155968E-4</v>
+      </c>
+      <c r="F8">
+        <v>-1.9077266575140874E-3</v>
+      </c>
+      <c r="G8">
+        <v>-5.7614738770842885E-3</v>
+      </c>
+      <c r="H8">
+        <v>7.5590310590016785E-3</v>
+      </c>
+      <c r="I8">
+        <v>8.2206830544586697E-3</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8">
+        <v>3.4343031950112568E-4</v>
+      </c>
+      <c r="L8">
+        <v>5.5353488057294784E-4</v>
+      </c>
+      <c r="M8">
+        <v>-3.3000282550520866E-3</v>
+      </c>
+      <c r="N8">
+        <v>-4.7326404856963666E-3</v>
+      </c>
+      <c r="O8">
+        <v>7.1357035406744238E-3</v>
+      </c>
+      <c r="P8">
+        <v>8.8640215363082631E-3</v>
+      </c>
+      <c r="Q8" s="9"/>
+      <c r="R8">
+        <v>7.0345570260298626E-3</v>
+      </c>
+      <c r="S8">
+        <v>-1.4037286768040908E-2</v>
+      </c>
+      <c r="T8">
+        <v>1.1151814028871727E-2</v>
+      </c>
+      <c r="U8">
+        <v>-2.3343189447314681E-3</v>
+      </c>
+      <c r="V8">
+        <v>-1.8147653421291539E-3</v>
+      </c>
+      <c r="W8">
+        <v>-5.0213306576650983E-2</v>
+      </c>
+      <c r="X8" s="9"/>
+      <c r="Y8">
+        <v>1.4223371789574594E-3</v>
+      </c>
+      <c r="Z8">
+        <v>5.615221568344693E-4</v>
+      </c>
+      <c r="AA8">
+        <v>-2.7503068590062855E-3</v>
+      </c>
+      <c r="AB8">
+        <v>-2.8549824303883151E-3</v>
+      </c>
+      <c r="AC8">
+        <v>3.621429953602704E-3</v>
+      </c>
+      <c r="AD8">
+        <v>1.4053299129489273E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9">
+        <v>3.9484928982835781E-2</v>
+      </c>
+      <c r="E9">
+        <v>4.3230951914753166E-2</v>
+      </c>
+      <c r="F9">
+        <v>5.8385061648429472E-2</v>
+      </c>
+      <c r="G9">
+        <v>4.1565763593505195E-2</v>
+      </c>
+      <c r="H9">
+        <v>2.9818315625191497E-2</v>
+      </c>
+      <c r="I9">
+        <v>6.3459411065456314E-2</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9">
+        <v>7.0622997501692555E-2</v>
+      </c>
+      <c r="L9">
+        <v>7.3596789210685243E-2</v>
+      </c>
+      <c r="M9">
+        <v>7.6377045908176983E-2</v>
+      </c>
+      <c r="N9">
+        <v>6.1297661778802699E-2</v>
+      </c>
+      <c r="O9">
+        <v>5.0736616320890104E-2</v>
+      </c>
+      <c r="P9">
+        <v>9.6759715014605105E-2</v>
+      </c>
+      <c r="Q9" s="12"/>
+      <c r="R9">
+        <v>8.8305113838130722E-2</v>
+      </c>
+      <c r="S9">
+        <v>7.2590160626165232E-2</v>
+      </c>
+      <c r="T9">
+        <v>0.14554761074229453</v>
+      </c>
+      <c r="U9">
+        <v>0.14726693760616483</v>
+      </c>
+      <c r="V9">
+        <v>8.6626985686101846E-2</v>
+      </c>
+      <c r="W9">
+        <v>0.17258834294386599</v>
+      </c>
+      <c r="X9" s="12"/>
+      <c r="Y9">
+        <v>4.4662795964763628E-2</v>
+      </c>
+      <c r="Z9">
+        <v>5.2007215296093139E-2</v>
+      </c>
+      <c r="AA9">
+        <v>7.978369967569833E-2</v>
+      </c>
+      <c r="AB9">
+        <v>6.4483153234626903E-2</v>
+      </c>
+      <c r="AC9">
+        <v>4.3708768569905077E-2</v>
+      </c>
+      <c r="AD9">
+        <v>8.6959842019402489E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10">
+        <v>0.7893904761904762</v>
+      </c>
+      <c r="E10">
+        <v>0.87236190476190478</v>
+      </c>
+      <c r="F10">
+        <v>0.92418095238095244</v>
+      </c>
+      <c r="G10">
+        <v>0.86321904761904766</v>
+      </c>
+      <c r="H10">
+        <v>0.89303809523809519</v>
+      </c>
+      <c r="I10">
+        <v>0.93747619047619046</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10">
+        <v>0.73233333333333328</v>
+      </c>
+      <c r="L10">
+        <v>0.6572095238095238</v>
+      </c>
+      <c r="M10">
+        <v>0.80568571428571434</v>
+      </c>
+      <c r="N10">
+        <v>0.66719047619047622</v>
+      </c>
+      <c r="O10">
+        <v>0.75152380952380948</v>
+      </c>
+      <c r="P10">
+        <v>0.79274285714285719</v>
+      </c>
+      <c r="Q10" s="12"/>
+      <c r="R10">
+        <v>0.56135238095238094</v>
+      </c>
+      <c r="S10">
+        <v>0.8513047619047619</v>
+      </c>
+      <c r="T10">
+        <v>0.50774285714285716</v>
+      </c>
+      <c r="U10">
+        <v>0.64565714285714282</v>
+      </c>
+      <c r="V10">
+        <v>0.81114285714285717</v>
+      </c>
+      <c r="W10">
+        <v>0.53599047619047624</v>
+      </c>
+      <c r="X10" s="12"/>
+      <c r="Y10">
+        <v>0.71869523809523805</v>
+      </c>
+      <c r="Z10">
+        <v>0.74509523809523814</v>
+      </c>
+      <c r="AA10">
+        <v>0.82258095238095241</v>
+      </c>
+      <c r="AB10">
+        <v>0.61146666666666671</v>
+      </c>
+      <c r="AC10">
+        <v>0.4788952380952381</v>
+      </c>
+      <c r="AD10">
+        <v>0.84020952380952385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11">
+        <v>0.10261490990079504</v>
+      </c>
+      <c r="E11">
+        <v>0.16822156858431611</v>
+      </c>
+      <c r="F11">
+        <v>0.18693898090769848</v>
+      </c>
+      <c r="G11">
+        <v>0.17842911066813411</v>
+      </c>
+      <c r="H11">
+        <v>0.14151305895450714</v>
+      </c>
+      <c r="I11">
+        <v>0.23435329671760055</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11">
+        <v>0.13359324997321465</v>
+      </c>
+      <c r="L11">
+        <v>0.18461438198315966</v>
+      </c>
+      <c r="M11">
+        <v>0.18999418619311131</v>
+      </c>
+      <c r="N11">
+        <v>0.19449558197453548</v>
+      </c>
+      <c r="O11">
+        <v>0.18869137038678949</v>
+      </c>
+      <c r="P11">
+        <v>0.22917293778040862</v>
+      </c>
+      <c r="Q11" s="12"/>
+      <c r="R11">
+        <v>0.10535343343833739</v>
+      </c>
+      <c r="S11">
+        <v>0.16823789072740727</v>
+      </c>
+      <c r="T11">
+        <v>0.19493859611408396</v>
+      </c>
+      <c r="U11">
+        <v>0.17986920495459441</v>
+      </c>
+      <c r="V11">
+        <v>0.14342540224334308</v>
+      </c>
+      <c r="W11">
+        <v>0.22954422013085032</v>
+      </c>
+      <c r="X11" s="12"/>
+      <c r="Y11">
+        <v>0.15144489295465127</v>
+      </c>
+      <c r="Z11">
+        <v>0.17267647458459057</v>
+      </c>
+      <c r="AA11">
+        <v>0.187057204243088</v>
+      </c>
+      <c r="AB11">
+        <v>0.13416057242477997</v>
+      </c>
+      <c r="AC11">
+        <v>0.11229577712742334</v>
+      </c>
+      <c r="AD11">
+        <v>0.23406871170091323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="16.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12">
+        <v>0.21820425730135909</v>
+      </c>
+      <c r="E12">
+        <v>0.3067112671429838</v>
+      </c>
+      <c r="F12">
+        <v>0.40320286508084324</v>
+      </c>
+      <c r="G12">
+        <v>0.31524368185774709</v>
+      </c>
+      <c r="H12">
+        <v>0.1792765111257949</v>
+      </c>
+      <c r="I12">
+        <v>0.50382078301253941</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12">
+        <v>0.23685433731984978</v>
+      </c>
+      <c r="L12">
+        <v>0.33539666904685583</v>
+      </c>
+      <c r="M12">
+        <v>0.43972433234621389</v>
+      </c>
+      <c r="N12">
+        <v>0.34436160558164092</v>
+      </c>
+      <c r="O12">
+        <v>0.19197852949439553</v>
+      </c>
+      <c r="P12">
+        <v>0.67403186086326772</v>
+      </c>
+      <c r="Q12" s="12"/>
+      <c r="R12">
+        <v>0.24990872769770234</v>
+      </c>
+      <c r="S12">
+        <v>0.32460095952739609</v>
+      </c>
+      <c r="T12">
+        <v>0.39842329388734105</v>
+      </c>
+      <c r="U12">
+        <v>0.28884175721214339</v>
+      </c>
+      <c r="V12">
+        <v>0.1872842583025513</v>
+      </c>
+      <c r="W12">
+        <v>0.51153430337941552</v>
+      </c>
+      <c r="X12" s="12"/>
+      <c r="Y12">
+        <v>0.25696428818380534</v>
+      </c>
+      <c r="Z12">
+        <v>0.36006720243969342</v>
+      </c>
+      <c r="AA12">
+        <v>0.42505768026081303</v>
+      </c>
+      <c r="AB12">
+        <v>0.33040560203025593</v>
+      </c>
+      <c r="AC12">
+        <v>0.20251229524613468</v>
+      </c>
+      <c r="AD12">
+        <v>0.68215293964951929</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
+    </row>
+    <row r="14" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8">
+        <v>-0.5</v>
+      </c>
+      <c r="E14" s="8">
+        <v>-0.25</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="8">
+        <v>-0.5</v>
+      </c>
+      <c r="L14" s="8">
+        <v>-0.25</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="8">
+        <v>-0.5</v>
+      </c>
+      <c r="S14" s="8">
+        <v>-0.25</v>
+      </c>
+      <c r="T14" s="8">
+        <v>0</v>
+      </c>
+      <c r="U14" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="V14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="8">
+        <v>-0.5</v>
+      </c>
+      <c r="Z14" s="8">
+        <v>-0.25</v>
+      </c>
+      <c r="AA14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="AC14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AD14" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>-4.5712476132199492E-4</v>
+      </c>
+      <c r="E15">
+        <v>1.1749258682176546E-4</v>
+      </c>
+      <c r="F15">
+        <v>-3.03138621282033E-3</v>
+      </c>
+      <c r="G15">
+        <v>-9.667478451164899E-3</v>
+      </c>
+      <c r="H15">
+        <v>1.3038496838485347E-2</v>
+      </c>
+      <c r="I15">
+        <v>-4.0944975033104921E-3</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15">
+        <v>8.4347966454904662E-3</v>
+      </c>
+      <c r="L15">
+        <v>-9.8204701290577501E-3</v>
+      </c>
+      <c r="M15">
+        <v>-8.3556371361667905E-3</v>
+      </c>
+      <c r="N15">
+        <v>1.2929963560072476E-3</v>
+      </c>
+      <c r="O15">
+        <v>8.4483142637268652E-3</v>
+      </c>
+      <c r="P15">
+        <v>-2.7305227276083889E-3</v>
+      </c>
+      <c r="Q15" s="12"/>
+      <c r="R15">
+        <v>-9.610941454362967E-3</v>
+      </c>
+      <c r="S15">
+        <v>1.7742471287385833E-2</v>
+      </c>
+      <c r="T15">
+        <v>-4.5613883033584185E-2</v>
+      </c>
+      <c r="U15">
+        <v>5.1887766649512099E-2</v>
+      </c>
+      <c r="V15">
+        <v>-1.4405413448950145E-2</v>
+      </c>
+      <c r="W15">
+        <v>-3.483252352170263E-2</v>
+      </c>
+      <c r="X15" s="12"/>
+      <c r="Y15">
+        <v>-2.2715388666533332E-4</v>
+      </c>
+      <c r="Z15">
+        <v>-9.5739425615191096E-4</v>
+      </c>
+      <c r="AA15">
+        <v>-5.0071480768009817E-3</v>
+      </c>
+      <c r="AB15">
+        <v>-7.8223537693409458E-3</v>
+      </c>
+      <c r="AC15">
+        <v>1.4014049988959698E-2</v>
+      </c>
+      <c r="AD15">
+        <v>-2.9322740288451608E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>7.1110934053008083E-4</v>
+      </c>
+      <c r="E16">
+        <v>1.2303321236671945E-3</v>
+      </c>
+      <c r="F16">
+        <v>-1.7509211653571435E-3</v>
+      </c>
+      <c r="G16">
+        <v>-7.215043382150386E-3</v>
+      </c>
+      <c r="H16">
+        <v>7.0245230833102324E-3</v>
+      </c>
+      <c r="I16">
+        <v>-2.3658302092178485E-3</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16">
+        <v>4.7975503262389092E-2</v>
+      </c>
+      <c r="L16">
+        <v>-3.2173277023543001E-2</v>
+      </c>
+      <c r="M16">
+        <v>-2.1839167972917302E-2</v>
+      </c>
+      <c r="N16">
+        <v>5.9870471736846946E-4</v>
+      </c>
+      <c r="O16">
+        <v>5.4382370167017028E-3</v>
+      </c>
+      <c r="P16">
+        <v>-6.0837562025412009E-3</v>
+      </c>
+      <c r="Q16" s="12"/>
+      <c r="R16">
+        <v>-5.9049555422704958E-2</v>
+      </c>
+      <c r="S16">
+        <v>1.0338467815035616E-2</v>
+      </c>
+      <c r="T16">
+        <v>7.9737163107045372E-2</v>
+      </c>
+      <c r="U16">
+        <v>4.7951415964189593E-2</v>
+      </c>
+      <c r="V16">
+        <v>-7.8977491463564933E-2</v>
+      </c>
+      <c r="W16">
+        <v>9.3269255237400928E-3</v>
+      </c>
+      <c r="X16" s="12"/>
+      <c r="Y16">
+        <v>-6.351906356895058E-4</v>
+      </c>
+      <c r="Z16">
+        <v>-6.5852498692721645E-5</v>
+      </c>
+      <c r="AA16">
+        <v>-5.1075004011622606E-3</v>
+      </c>
+      <c r="AB16">
+        <v>-4.9942351221204988E-2</v>
+      </c>
+      <c r="AC16">
+        <v>5.5750894756749145E-2</v>
+      </c>
+      <c r="AD16">
+        <v>-2.5795591317919237E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>-1.5481098384021248E-3</v>
+      </c>
+      <c r="E17">
+        <v>-6.5581363407141147E-4</v>
+      </c>
+      <c r="F17">
+        <v>-2.4203841119945207E-3</v>
+      </c>
+      <c r="G17">
+        <v>-7.5524936986838221E-3</v>
+      </c>
+      <c r="H17">
+        <v>1.217680128315193E-2</v>
+      </c>
+      <c r="I17">
+        <v>-3.6598275280095515E-3</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17">
+        <v>6.4007943922572835E-2</v>
+      </c>
+      <c r="L17">
+        <v>-6.9999619783556372E-2</v>
+      </c>
+      <c r="M17">
+        <v>5.4310443779609632E-3</v>
+      </c>
+      <c r="N17">
+        <v>3.157964276126058E-2</v>
+      </c>
+      <c r="O17">
+        <v>-3.1019011278237203E-2</v>
+      </c>
+      <c r="P17">
+        <v>7.2845265068808797E-3</v>
+      </c>
+      <c r="Q17" s="12"/>
+      <c r="R17">
+        <v>-0.1060733722154836</v>
+      </c>
+      <c r="S17">
+        <v>8.6631997363393734E-2</v>
+      </c>
+      <c r="T17">
+        <v>0.2529445609242959</v>
+      </c>
+      <c r="U17">
+        <v>-0.25265700009732028</v>
+      </c>
+      <c r="V17">
+        <v>1.9153814025114665E-2</v>
+      </c>
+      <c r="W17">
+        <v>-2.1227925247676301E-2</v>
+      </c>
+      <c r="X17" s="12"/>
+      <c r="Y17">
+        <v>-5.9891400020512815E-3</v>
+      </c>
+      <c r="Z17">
+        <v>-1.4096807664487367E-2</v>
+      </c>
+      <c r="AA17">
+        <v>1.4419190307177502E-2</v>
+      </c>
+      <c r="AB17">
+        <v>-4.2442099690791334E-3</v>
+      </c>
+      <c r="AC17">
+        <v>9.9109673284396953E-3</v>
+      </c>
+      <c r="AD17">
+        <v>-4.2652101672805377E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>-5.2224589014924989E-5</v>
+      </c>
+      <c r="E18">
+        <v>-1.3799273737404594E-4</v>
+      </c>
+      <c r="F18">
+        <v>-4.321866854669216E-4</v>
+      </c>
+      <c r="G18">
+        <v>-1.4551721230985713E-3</v>
+      </c>
+      <c r="H18">
+        <v>2.0775761349544849E-3</v>
+      </c>
+      <c r="I18">
+        <v>-5.5281710133592223E-4</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18">
+        <v>-5.534582970687864E-3</v>
+      </c>
+      <c r="L18">
+        <v>3.9131024707078762E-4</v>
+      </c>
+      <c r="M18">
+        <v>9.3632805021619438E-3</v>
+      </c>
+      <c r="N18">
+        <v>1.9879256068919141E-3</v>
+      </c>
+      <c r="O18">
+        <v>-6.2079333854367343E-3</v>
+      </c>
+      <c r="P18">
+        <v>3.8211640416674826E-3</v>
+      </c>
+      <c r="Q18" s="12"/>
+      <c r="R18">
+        <v>1.8059325998187427E-3</v>
+      </c>
+      <c r="S18">
+        <v>5.8570710156444503E-3</v>
+      </c>
+      <c r="T18">
+        <v>-6.0441304493658388E-3</v>
+      </c>
+      <c r="U18">
+        <v>-8.4219962797579609E-3</v>
+      </c>
+      <c r="V18">
+        <v>6.8031231136608293E-3</v>
+      </c>
+      <c r="W18">
+        <v>-7.4946711742278054E-3</v>
+      </c>
+      <c r="X18" s="12"/>
+      <c r="Y18">
+        <v>-3.3513797930571372E-4</v>
+      </c>
+      <c r="Z18">
+        <v>3.1418748241859649E-5</v>
+      </c>
+      <c r="AA18">
+        <v>1.9105181009260168E-3</v>
+      </c>
+      <c r="AB18">
+        <v>-1.8696060474934549E-3</v>
+      </c>
+      <c r="AC18">
+        <v>2.6280717763130002E-4</v>
+      </c>
+      <c r="AD18">
+        <v>2.4315247662690445E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>5.0010926360720361E-2</v>
+      </c>
+      <c r="E19">
+        <v>7.5017257412898844E-2</v>
+      </c>
+      <c r="F19">
+        <v>9.1019001733949945E-2</v>
+      </c>
+      <c r="G19">
+        <v>6.8947047640638207E-2</v>
+      </c>
+      <c r="H19">
+        <v>4.4779928438963522E-2</v>
+      </c>
+      <c r="I19">
+        <v>0.10008749763281545</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19">
+        <v>0.10958389623468624</v>
+      </c>
+      <c r="L19">
+        <v>0.13121738929400212</v>
+      </c>
+      <c r="M19">
+        <v>0.15213700858701037</v>
+      </c>
+      <c r="N19">
+        <v>0.11599158559235936</v>
+      </c>
+      <c r="O19">
+        <v>9.3654666036087908E-2</v>
+      </c>
+      <c r="P19">
+        <v>0.17706623778340436</v>
+      </c>
+      <c r="Q19" s="12"/>
+      <c r="R19">
+        <v>0.11772712865920347</v>
+      </c>
+      <c r="S19">
+        <v>0.12389000003636093</v>
+      </c>
+      <c r="T19">
+        <v>0.22026187661846092</v>
+      </c>
+      <c r="U19">
+        <v>0.17382201845588968</v>
+      </c>
+      <c r="V19">
+        <v>0.15335757293973734</v>
+      </c>
+      <c r="W19">
+        <v>0.23308558386877248</v>
+      </c>
+      <c r="X19" s="12"/>
+      <c r="Y19">
+        <v>6.2090873736850891E-2</v>
+      </c>
+      <c r="Z19">
+        <v>8.9696990077877736E-2</v>
+      </c>
+      <c r="AA19">
+        <v>0.16869564192574951</v>
+      </c>
+      <c r="AB19">
+        <v>0.17495922999072239</v>
+      </c>
+      <c r="AC19">
+        <v>0.13470630189042351</v>
+      </c>
+      <c r="AD19">
+        <v>0.20079636457673866</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>3.4243227538089671E-2</v>
+      </c>
+      <c r="E20">
+        <v>4.5323148081425541E-2</v>
+      </c>
+      <c r="F20">
+        <v>6.0026180476262042E-2</v>
+      </c>
+      <c r="G20">
+        <v>4.3067379137908972E-2</v>
+      </c>
+      <c r="H20">
+        <v>2.9375762745620187E-2</v>
+      </c>
+      <c r="I20">
+        <v>6.4143516865027908E-2</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20">
+        <v>0.11712193130167685</v>
+      </c>
+      <c r="L20">
+        <v>0.11158600580876159</v>
+      </c>
+      <c r="M20">
+        <v>0.10986178805492902</v>
+      </c>
+      <c r="N20">
+        <v>8.2939656218530708E-2</v>
+      </c>
+      <c r="O20">
+        <v>7.1896475195523182E-2</v>
+      </c>
+      <c r="P20">
+        <v>0.14533839696698422</v>
+      </c>
+      <c r="Q20" s="12"/>
+      <c r="R20">
+        <v>0.13675152298652793</v>
+      </c>
+      <c r="S20">
+        <v>9.6544456521340208E-2</v>
+      </c>
+      <c r="T20">
+        <v>0.19562503426472169</v>
+      </c>
+      <c r="U20">
+        <v>0.2176518615889167</v>
+      </c>
+      <c r="V20">
+        <v>0.22909941404933348</v>
+      </c>
+      <c r="W20">
+        <v>0.261799366457519</v>
+      </c>
+      <c r="X20" s="12"/>
+      <c r="Y20">
+        <v>1.8262526098365147E-2</v>
+      </c>
+      <c r="Z20">
+        <v>4.6864382487103305E-2</v>
+      </c>
+      <c r="AA20">
+        <v>0.15751868233739469</v>
+      </c>
+      <c r="AB20">
+        <v>0.35162934316840744</v>
+      </c>
+      <c r="AC20">
+        <v>0.32482053434942615</v>
+      </c>
+      <c r="AD20">
+        <v>0.33332388622885006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>6.4982051477260619E-2</v>
+      </c>
+      <c r="E21">
+        <v>7.93620055991969E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.11527519209145685</v>
+      </c>
+      <c r="G21">
+        <v>7.8355169339729455E-2</v>
+      </c>
+      <c r="H21">
+        <v>5.5374113354298961E-2</v>
+      </c>
+      <c r="I21">
+        <v>0.1181945835817096</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21">
+        <v>0.17008000159909584</v>
+      </c>
+      <c r="L21">
+        <v>0.18188714543400472</v>
+      </c>
+      <c r="M21">
+        <v>0.1998848208808712</v>
+      </c>
+      <c r="N21">
+        <v>0.13991739020390201</v>
+      </c>
+      <c r="O21">
+        <v>0.11540174224779075</v>
+      </c>
+      <c r="P21">
+        <v>0.24153084269670558</v>
+      </c>
+      <c r="Q21" s="12"/>
+      <c r="R21">
+        <v>0.28739286930310159</v>
+      </c>
+      <c r="S21">
+        <v>0.24708149933261184</v>
+      </c>
+      <c r="T21">
+        <v>0.65661125488570615</v>
+      </c>
+      <c r="U21">
+        <v>0.51078652840685812</v>
+      </c>
+      <c r="V21">
+        <v>0.21522750199051566</v>
+      </c>
+      <c r="W21">
+        <v>0.6301972354169304</v>
+      </c>
+      <c r="X21" s="12"/>
+      <c r="Y21">
+        <v>6.7678061810303836E-2</v>
+      </c>
+      <c r="Z21">
+        <v>0.16886037683525418</v>
+      </c>
+      <c r="AA21">
+        <v>0.39770682154501918</v>
+      </c>
+      <c r="AB21">
+        <v>0.28822872271028344</v>
+      </c>
+      <c r="AC21">
+        <v>0.13142203542882977</v>
+      </c>
+      <c r="AD21">
+        <v>0.36981126877191306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>1.0534052245244407E-2</v>
+      </c>
+      <c r="E22">
+        <v>1.378877944420312E-2</v>
+      </c>
+      <c r="F22">
+        <v>1.9801419808855417E-2</v>
+      </c>
+      <c r="G22">
+        <v>1.3392202282161763E-2</v>
+      </c>
+      <c r="H22">
+        <v>9.5026165472961322E-3</v>
+      </c>
+      <c r="I22">
+        <v>2.0169877351140703E-2</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22">
+        <v>2.345909239323225E-2</v>
+      </c>
+      <c r="L22">
+        <v>2.9035440156746434E-2</v>
+      </c>
+      <c r="M22">
+        <v>3.5769435286428695E-2</v>
+      </c>
+      <c r="N22">
+        <v>2.3155947483885036E-2</v>
+      </c>
+      <c r="O22">
+        <v>2.0443844747153168E-2</v>
+      </c>
+      <c r="P22">
+        <v>3.9471594357508785E-2</v>
+      </c>
+      <c r="Q22" s="12"/>
+      <c r="R22">
+        <v>1.7982809756284392E-2</v>
+      </c>
+      <c r="S22">
+        <v>2.1044698863573911E-2</v>
+      </c>
+      <c r="T22">
+        <v>4.2799806907374477E-2</v>
+      </c>
+      <c r="U22">
+        <v>3.0973123226712453E-2</v>
+      </c>
+      <c r="V22">
+        <v>2.3040821505144176E-2</v>
+      </c>
+      <c r="W22">
+        <v>4.2667615205838949E-2</v>
+      </c>
+      <c r="X22" s="12"/>
+      <c r="Y22">
+        <v>1.4800027323323826E-2</v>
+      </c>
+      <c r="Z22">
+        <v>1.8632789883279943E-2</v>
+      </c>
+      <c r="AA22">
+        <v>3.3474662315223454E-2</v>
+      </c>
+      <c r="AB22">
+        <v>2.2497098294768956E-2</v>
+      </c>
+      <c r="AC22">
+        <v>9.1296655602653085E-3</v>
+      </c>
+      <c r="AD22">
+        <v>3.2187055826889417E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>0.80832380952380956</v>
+      </c>
+      <c r="E23">
+        <v>0.89018095238095241</v>
+      </c>
+      <c r="F23">
+        <v>0.94589523809523812</v>
+      </c>
+      <c r="G23">
+        <v>0.88375238095238096</v>
+      </c>
+      <c r="H23">
+        <v>0.90326666666666666</v>
+      </c>
+      <c r="I23">
+        <v>0.95303809523809524</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="K23">
+        <v>0.71916190476190478</v>
+      </c>
+      <c r="L23">
+        <v>0.67316190476190474</v>
+      </c>
+      <c r="M23">
+        <v>0.82726666666666671</v>
+      </c>
+      <c r="N23">
+        <v>0.69119047619047624</v>
+      </c>
+      <c r="O23">
+        <v>0.75053333333333339</v>
+      </c>
+      <c r="P23">
+        <v>0.80137142857142862</v>
+      </c>
+      <c r="Q23" s="12"/>
+      <c r="R23">
+        <v>0.5036761904761905</v>
+      </c>
+      <c r="S23">
+        <v>0.80561904761904757</v>
+      </c>
+      <c r="T23">
+        <v>0.50308571428571425</v>
+      </c>
+      <c r="U23">
+        <v>0.6355142857142857</v>
+      </c>
+      <c r="V23">
+        <v>0.7276285714285714</v>
+      </c>
+      <c r="W23">
+        <v>0.5377142857142857</v>
+      </c>
+      <c r="X23" s="12"/>
+      <c r="Y23">
+        <v>0.73569523809523807</v>
+      </c>
+      <c r="Z23">
+        <v>0.76010476190476195</v>
+      </c>
+      <c r="AA23">
+        <v>0.85433333333333328</v>
+      </c>
+      <c r="AB23">
+        <v>0.65492380952380957</v>
+      </c>
+      <c r="AC23">
+        <v>0.54998095238095235</v>
+      </c>
+      <c r="AD23">
+        <v>0.86474285714285715</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>0.80460952380952377</v>
+      </c>
+      <c r="E24">
+        <v>0.88311428571428574</v>
+      </c>
+      <c r="F24">
+        <v>0.93746666666666667</v>
+      </c>
+      <c r="G24">
+        <v>0.87537142857142858</v>
+      </c>
+      <c r="H24">
+        <v>0.90136190476190481</v>
+      </c>
+      <c r="I24">
+        <v>0.94621904761904763</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24">
+        <v>0.55270476190476192</v>
+      </c>
+      <c r="L24">
+        <v>0.55356190476190481</v>
+      </c>
+      <c r="M24">
+        <v>0.79538095238095241</v>
+      </c>
+      <c r="N24">
+        <v>0.70399047619047617</v>
+      </c>
+      <c r="O24">
+        <v>0.75913333333333333</v>
+      </c>
+      <c r="P24">
+        <v>0.69460952380952379</v>
+      </c>
+      <c r="Q24" s="12"/>
+      <c r="R24">
+        <v>0.43244761904761903</v>
+      </c>
+      <c r="S24">
+        <v>0.70705714285714283</v>
+      </c>
+      <c r="T24">
+        <v>0.32394285714285714</v>
+      </c>
+      <c r="U24">
+        <v>0.59217142857142857</v>
+      </c>
+      <c r="V24">
+        <v>0.66186666666666671</v>
+      </c>
+      <c r="W24">
+        <v>0.35823809523809524</v>
+      </c>
+      <c r="X24" s="12"/>
+      <c r="Y24">
+        <v>0.64570476190476189</v>
+      </c>
+      <c r="Z24">
+        <v>0.67429523809523806</v>
+      </c>
+      <c r="AA24">
+        <v>0.76917142857142862</v>
+      </c>
+      <c r="AB24">
+        <v>0.64805714285714289</v>
+      </c>
+      <c r="AC24">
+        <v>0.54151428571428573</v>
+      </c>
+      <c r="AD24">
+        <v>0.77418095238095241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <v>0.80514285714285716</v>
+      </c>
+      <c r="E25">
+        <v>0.88161904761904764</v>
+      </c>
+      <c r="F25">
+        <v>0.94044761904761909</v>
+      </c>
+      <c r="G25">
+        <v>0.87080952380952381</v>
+      </c>
+      <c r="H25">
+        <v>0.90222857142857138</v>
+      </c>
+      <c r="I25">
+        <v>0.94681904761904767</v>
+      </c>
+      <c r="J25" s="12"/>
+      <c r="K25">
+        <v>0.59723809523809523</v>
+      </c>
+      <c r="L25">
+        <v>0.5867904761904762</v>
+      </c>
+      <c r="M25">
+        <v>0.78383809523809522</v>
+      </c>
+      <c r="N25">
+        <v>0.65323809523809528</v>
+      </c>
+      <c r="O25">
+        <v>0.64326666666666665</v>
+      </c>
+      <c r="P25">
+        <v>0.65926666666666667</v>
+      </c>
+      <c r="Q25" s="12"/>
+      <c r="R25">
+        <v>0.37155238095238097</v>
+      </c>
+      <c r="S25">
+        <v>0.61251428571428568</v>
+      </c>
+      <c r="T25">
+        <v>0.25006666666666666</v>
+      </c>
+      <c r="U25">
+        <v>0.50764761904761901</v>
+      </c>
+      <c r="V25">
+        <v>0.72185714285714286</v>
+      </c>
+      <c r="W25">
+        <v>0.2737904761904762</v>
+      </c>
+      <c r="X25" s="12"/>
+      <c r="Y25">
+        <v>0.65916190476190473</v>
+      </c>
+      <c r="Z25">
+        <v>0.68288571428571432</v>
+      </c>
+      <c r="AA25">
+        <v>0.76774285714285717</v>
+      </c>
+      <c r="AB25">
+        <v>0.63113333333333332</v>
+      </c>
+      <c r="AC25">
+        <v>0.48868571428571428</v>
+      </c>
+      <c r="AD25">
+        <v>0.76947619047619042</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>0.80299047619047614</v>
+      </c>
+      <c r="E26">
+        <v>0.88598095238095242</v>
+      </c>
+      <c r="F26">
+        <v>0.93584761904761904</v>
+      </c>
+      <c r="G26">
+        <v>0.87291428571428575</v>
+      </c>
+      <c r="H26">
+        <v>0.89839047619047618</v>
+      </c>
+      <c r="I26">
+        <v>0.94499047619047616</v>
+      </c>
+      <c r="J26" s="12"/>
+      <c r="K26">
+        <v>0.77526666666666666</v>
+      </c>
+      <c r="L26">
+        <v>0.70259047619047621</v>
+      </c>
+      <c r="M26">
+        <v>0.80346666666666666</v>
+      </c>
+      <c r="N26">
+        <v>0.63034285714285709</v>
+      </c>
+      <c r="O26">
+        <v>0.62373333333333336</v>
+      </c>
+      <c r="P26">
+        <v>0.76882857142857142</v>
+      </c>
+      <c r="Q26" s="12"/>
+      <c r="R26">
+        <v>0.54495238095238097</v>
+      </c>
+      <c r="S26">
+        <v>0.80025714285714289</v>
+      </c>
+      <c r="T26">
+        <v>0.55081904761904765</v>
+      </c>
+      <c r="U26">
+        <v>0.68642857142857139</v>
+      </c>
+      <c r="V26">
+        <v>0.80722857142857141</v>
+      </c>
+      <c r="W26">
+        <v>0.56629523809523807</v>
+      </c>
+      <c r="X26" s="12"/>
+      <c r="Y26">
+        <v>0.73934285714285719</v>
+      </c>
+      <c r="Z26">
+        <v>0.75632380952380951</v>
+      </c>
+      <c r="AA26">
+        <v>0.84204761904761904</v>
+      </c>
+      <c r="AB26">
+        <v>0.62619047619047619</v>
+      </c>
+      <c r="AC26">
+        <v>0.4835714285714286</v>
+      </c>
+      <c r="AD26">
+        <v>0.84355238095238094</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>0.13456501390775927</v>
+      </c>
+      <c r="E27">
+        <v>0.25865757473125667</v>
+      </c>
+      <c r="F27">
+        <v>0.20342205446358261</v>
+      </c>
+      <c r="G27">
+        <v>0.26717779979473205</v>
+      </c>
+      <c r="H27">
+        <v>0.17283398340052739</v>
+      </c>
+      <c r="I27">
+        <v>0.23692968907667863</v>
+      </c>
+      <c r="J27" s="22"/>
+      <c r="K27">
+        <v>0.23313250243331091</v>
+      </c>
+      <c r="L27">
+        <v>0.31289335688995873</v>
+      </c>
+      <c r="M27">
+        <v>0.28498700728566295</v>
+      </c>
+      <c r="N27">
+        <v>0.33405141571936398</v>
+      </c>
+      <c r="O27">
+        <v>0.28698085905018417</v>
+      </c>
+      <c r="P27">
+        <v>0.32777968989755435</v>
+      </c>
+      <c r="Q27" s="22"/>
+      <c r="R27">
+        <v>0.13899416214892304</v>
+      </c>
+      <c r="S27">
+        <v>0.26371119535607046</v>
+      </c>
+      <c r="T27">
+        <v>0.2044600908177184</v>
+      </c>
+      <c r="U27">
+        <v>0.27007544745803119</v>
+      </c>
+      <c r="V27">
+        <v>0.16922208815079781</v>
+      </c>
+      <c r="W27">
+        <v>0.24758056247449542</v>
+      </c>
+      <c r="X27" s="22"/>
+      <c r="Y27">
+        <v>0.23642056799242922</v>
+      </c>
+      <c r="Z27">
+        <v>0.32095402342741358</v>
+      </c>
+      <c r="AA27">
+        <v>0.28216495609762765</v>
+      </c>
+      <c r="AB27">
+        <v>0.29712504753448205</v>
+      </c>
+      <c r="AC27">
+        <v>0.17948781933669847</v>
+      </c>
+      <c r="AD27">
+        <v>0.32311913420131133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>0.15439015596155697</v>
+      </c>
+      <c r="E28">
+        <v>0.26401746221385458</v>
+      </c>
+      <c r="F28">
+        <v>0.22779091031891779</v>
+      </c>
+      <c r="G28">
+        <v>0.28244343646933401</v>
+      </c>
+      <c r="H28">
+        <v>0.18736480929948332</v>
+      </c>
+      <c r="I28">
+        <v>0.2591452884497209</v>
+      </c>
+      <c r="J28" s="22"/>
+      <c r="K28">
+        <v>0.30620986797543365</v>
+      </c>
+      <c r="L28">
+        <v>0.28422039501466045</v>
+      </c>
+      <c r="M28">
+        <v>0.33363232966533296</v>
+      </c>
+      <c r="N28">
+        <v>0.38461795000361321</v>
+      </c>
+      <c r="O28">
+        <v>0.3215010903657089</v>
+      </c>
+      <c r="P28">
+        <v>0.34446218176110416</v>
+      </c>
+      <c r="Q28" s="22"/>
+      <c r="R28">
+        <v>0.16397887727008417</v>
+      </c>
+      <c r="S28">
+        <v>0.26970143632703614</v>
+      </c>
+      <c r="T28">
+        <v>0.23432009995612799</v>
+      </c>
+      <c r="U28">
+        <v>0.29288958447417229</v>
+      </c>
+      <c r="V28">
+        <v>0.18298320929775599</v>
+      </c>
+      <c r="W28">
+        <v>0.27296296939348363</v>
+      </c>
+      <c r="X28" s="22"/>
+      <c r="Y28">
+        <v>0.28395341126318291</v>
+      </c>
+      <c r="Z28">
+        <v>0.31078792151421036</v>
+      </c>
+      <c r="AA28">
+        <v>0.52444540915809901</v>
+      </c>
+      <c r="AB28">
+        <v>0.95907389085161354</v>
+      </c>
+      <c r="AC28">
+        <v>0.73742379918683232</v>
+      </c>
+      <c r="AD28">
+        <v>0.79310564683305718</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <v>0.18834237872696472</v>
+      </c>
+      <c r="E29">
+        <v>0.30236016765370549</v>
+      </c>
+      <c r="F29">
+        <v>0.28539004224716807</v>
+      </c>
+      <c r="G29">
+        <v>0.32683253834931569</v>
+      </c>
+      <c r="H29">
+        <v>0.21555223645063312</v>
+      </c>
+      <c r="I29">
+        <v>0.31102407585139913</v>
+      </c>
+      <c r="J29" s="22"/>
+      <c r="K29">
+        <v>0.32650513270747555</v>
+      </c>
+      <c r="L29">
+        <v>0.34702633946995454</v>
+      </c>
+      <c r="M29">
+        <v>0.41139116182667346</v>
+      </c>
+      <c r="N29">
+        <v>0.36786654426818727</v>
+      </c>
+      <c r="O29">
+        <v>0.37560396146724201</v>
+      </c>
+      <c r="P29">
+        <v>0.38802440920449383</v>
+      </c>
+      <c r="Q29" s="22"/>
+      <c r="R29">
+        <v>0.17370794256678004</v>
+      </c>
+      <c r="S29">
+        <v>0.28828504469229743</v>
+      </c>
+      <c r="T29">
+        <v>0.25675890903807014</v>
+      </c>
+      <c r="U29">
+        <v>0.30789638149909226</v>
+      </c>
+      <c r="V29">
+        <v>0.19486904878926428</v>
+      </c>
+      <c r="W29">
+        <v>0.28901940883087468</v>
+      </c>
+      <c r="X29" s="22"/>
+      <c r="Y29">
+        <v>0.28771809156273181</v>
+      </c>
+      <c r="Z29">
+        <v>0.31189158472225142</v>
+      </c>
+      <c r="AA29">
+        <v>0.29687313667674436</v>
+      </c>
+      <c r="AB29">
+        <v>0.25252290495746227</v>
+      </c>
+      <c r="AC29">
+        <v>0.18642762887396971</v>
+      </c>
+      <c r="AD29">
+        <v>0.28726256187787408</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30">
+        <v>0.17582908195585667</v>
+      </c>
+      <c r="E30">
+        <v>0.30652387084399246</v>
+      </c>
+      <c r="F30">
+        <v>0.27851599642370956</v>
+      </c>
+      <c r="G30">
+        <v>0.32196811265287528</v>
+      </c>
+      <c r="H30">
+        <v>0.21168477727227794</v>
+      </c>
+      <c r="I30">
+        <v>0.30403583784877081</v>
+      </c>
+      <c r="J30" s="17"/>
+      <c r="K30">
+        <v>0.24900374517977839</v>
+      </c>
+      <c r="L30">
+        <v>0.35685755131684543</v>
+      </c>
+      <c r="M30">
+        <v>0.40580918348400774</v>
+      </c>
+      <c r="N30">
+        <v>0.37089571142418665</v>
+      </c>
+      <c r="O30">
+        <v>0.37070436553645775</v>
+      </c>
+      <c r="P30">
+        <v>0.40984521394350271</v>
+      </c>
+      <c r="Q30" s="17"/>
+      <c r="R30">
+        <v>0.19213843771398303</v>
+      </c>
+      <c r="S30">
+        <v>0.32344985443918112</v>
+      </c>
+      <c r="T30">
+        <v>0.29724288332965026</v>
+      </c>
+      <c r="U30">
+        <v>0.34085109311089989</v>
+      </c>
+      <c r="V30">
+        <v>0.21580745678822497</v>
+      </c>
+      <c r="W30">
+        <v>0.32745128754839975</v>
+      </c>
+      <c r="X30" s="17"/>
+      <c r="Y30">
+        <v>0.30530195250746173</v>
+      </c>
+      <c r="Z30">
+        <v>0.3635577489528099</v>
+      </c>
+      <c r="AA30">
+        <v>0.3380041356958986</v>
+      </c>
+      <c r="AB30">
+        <v>0.28076890852801517</v>
+      </c>
+      <c r="AC30">
+        <v>0.19477994038763247</v>
+      </c>
+      <c r="AD30">
+        <v>0.35547781539933926</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+    </row>
+    <row r="32" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32">
+        <v>0.51</v>
+      </c>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="Y32">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+    </row>
+    <row r="34" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34">
+        <v>0.44</v>
+      </c>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+    </row>
+    <row r="35" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35">
+        <v>0.104</v>
+      </c>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35">
+        <v>1.4E-2</v>
+      </c>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+    </row>
+    <row r="36" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36">
+        <v>6.2E-2</v>
+      </c>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36">
+        <v>0.108</v>
+      </c>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+    </row>
+    <row r="37" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37">
+        <v>0.05</v>
+      </c>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="25"/>
+      <c r="W37" s="25"/>
+      <c r="X37" s="25"/>
+      <c r="Y37">
+        <v>0.95</v>
+      </c>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+    </row>
+    <row r="38" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="25"/>
+      <c r="D38">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38">
+        <v>1.4E-2</v>
+      </c>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="25"/>
+      <c r="Y38">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+    </row>
+    <row r="39" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39">
+        <v>1.2E-2</v>
+      </c>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+    </row>
+    <row r="40" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40">
+        <v>0.02</v>
+      </c>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+    </row>
+    <row r="41" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+    </row>
+    <row r="42" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42">
+        <v>0.02</v>
+      </c>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42">
+        <v>0.97</v>
+      </c>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+    </row>
+    <row r="43" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43">
+        <v>0.03</v>
+      </c>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43">
+        <v>2.4E-2</v>
+      </c>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+    </row>
+    <row r="44" spans="1:30" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44">
+        <v>1.4E-2</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44">
+        <v>0.122</v>
+      </c>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
+      <c r="X44" s="17"/>
+      <c r="Y44">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+    </row>
+    <row r="45" spans="1:30" ht="4.9000000000000004" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B48" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B49" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>6.6727369527391597E-2</v>
+      </c>
+      <c r="E49">
+        <v>2.5717411452061502E-2</v>
+      </c>
+      <c r="F49">
+        <v>6.9722627528857259E-2</v>
+      </c>
+      <c r="G49">
+        <v>1.0899140581509478E-2</v>
+      </c>
+      <c r="H49">
+        <v>5.3632914121634213E-2</v>
+      </c>
+      <c r="I49">
+        <v>0.10857463847328569</v>
+      </c>
+      <c r="J49">
+        <v>0.20130095828525807</v>
+      </c>
+      <c r="K49">
+        <v>0.12528207981748773</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B50" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>0.20481960182126793</v>
+      </c>
+      <c r="E50">
+        <v>0.15562204387066986</v>
+      </c>
+      <c r="F50">
+        <v>0.35618884339329682</v>
+      </c>
+      <c r="G50">
+        <v>6.0601958488406008E-2</v>
+      </c>
+      <c r="H50">
+        <v>0.55965511112243893</v>
+      </c>
+      <c r="I50">
+        <v>0.57274800012953064</v>
+      </c>
+      <c r="J50">
+        <v>0.6890509992459487</v>
+      </c>
+      <c r="K50">
+        <v>0.72007316542495081</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B51" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>0.95</v>
+      </c>
+      <c r="E51">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="F51">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="G51">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="H51">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="I51">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="J51">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="K51">
+        <v>0.94599999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <v>1.0053381177365501</v>
+      </c>
+      <c r="E52">
+        <v>0.96998603430622465</v>
+      </c>
+      <c r="F52">
+        <v>1.0097434436952832</v>
+      </c>
+      <c r="G52">
+        <v>0.98389483816666845</v>
+      </c>
+      <c r="H52">
+        <v>0.97621816957220964</v>
+      </c>
+      <c r="I52">
+        <v>0.97915278946794915</v>
+      </c>
+      <c r="J52">
+        <v>0.99369866038819588</v>
+      </c>
+      <c r="K52">
+        <v>0.99696091882676985</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B54" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B55" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>2.94148761407238</v>
+      </c>
+      <c r="E55">
+        <v>2.7916304187062795</v>
+      </c>
+      <c r="F55">
+        <v>-0.14548099451454233</v>
+      </c>
+      <c r="G55">
+        <v>0.30401145353099968</v>
+      </c>
+      <c r="H55">
+        <v>2.7522589019153614</v>
+      </c>
+      <c r="I55">
+        <v>2753706018.3038311</v>
+      </c>
+      <c r="J55">
+        <v>1.1526009728053934</v>
+      </c>
+      <c r="K55">
+        <v>2.7046975956812886</v>
+      </c>
+      <c r="L55">
+        <v>5.0060125699629983E-2</v>
+      </c>
+      <c r="M55">
+        <v>1.3273036123572824E+76</v>
+      </c>
+      <c r="N55">
+        <v>0.24881577668476773</v>
+      </c>
+      <c r="O55">
+        <v>3.6655916578993786</v>
+      </c>
+      <c r="P55">
+        <v>-0.90279750734291242</v>
+      </c>
+      <c r="Q55">
+        <v>4.1413646282437931E+176</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B56" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>31.759832368084286</v>
+      </c>
+      <c r="E56">
+        <v>29.436676762323515</v>
+      </c>
+      <c r="F56">
+        <v>11.19195473491836</v>
+      </c>
+      <c r="G56">
+        <v>6.2968878157580219</v>
+      </c>
+      <c r="H56">
+        <v>24.696884879623241</v>
+      </c>
+      <c r="I56">
+        <v>50325561382.028091</v>
+      </c>
+      <c r="J56">
+        <v>6.9187390988602715</v>
+      </c>
+      <c r="K56">
+        <v>10.921182039819961</v>
+      </c>
+      <c r="L56">
+        <v>10.024805176772141</v>
+      </c>
+      <c r="M56">
+        <v>2.9588907163806307E+77</v>
+      </c>
+      <c r="N56">
+        <v>4.0541528006451202</v>
+      </c>
+      <c r="O56">
+        <v>39.505764905173471</v>
+      </c>
+      <c r="P56">
+        <v>11.076665146427709</v>
+      </c>
+      <c r="Q56">
+        <v>2.9718615025207211E+108</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B57" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="E57">
+        <v>0.89</v>
+      </c>
+      <c r="F57">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="G57">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="H57">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="I57">
+        <v>0.91</v>
+      </c>
+      <c r="J57">
+        <v>0.92</v>
+      </c>
+      <c r="K57">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="L57">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="M57">
+        <v>0.8</v>
+      </c>
+      <c r="N57">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="O57">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="P57">
+        <v>0.91</v>
+      </c>
+      <c r="Q57">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58">
+        <v>1.4359006175532006E-2</v>
+      </c>
+      <c r="E58">
+        <v>1.336898794025901E-2</v>
+      </c>
+      <c r="F58">
+        <v>0.11322928219178924</v>
+      </c>
+      <c r="G58">
+        <v>1.8486785194435081E-2</v>
+      </c>
+      <c r="H58">
+        <v>8.8190108362929689E-2</v>
+      </c>
+      <c r="I58">
+        <v>4.7964601750369689E-11</v>
+      </c>
+      <c r="J58">
+        <v>0.14379237658943872</v>
+      </c>
+      <c r="K58">
+        <v>1.0456671394023775</v>
+      </c>
+      <c r="L58">
+        <v>0.68494337014732676</v>
+      </c>
+      <c r="M58">
+        <v>3.7782941894661918E-77</v>
+      </c>
+      <c r="N58">
+        <v>6.8487268390373876E-2</v>
+      </c>
+      <c r="O58">
+        <v>2.006277640771899E-3</v>
+      </c>
+      <c r="P58">
+        <v>3.090798044055984E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D6:AD6"/>
+    <mergeCell ref="D13:AD13"/>
+    <mergeCell ref="B31:Y31"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:P4"/>
+    <mergeCell ref="R4:AD4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="Y5:AD5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AD59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="AB43" sqref="AB43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="12" max="15" width="5" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" customWidth="1"/>
+    <col min="18" max="19" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5703125" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:30" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+    </row>
+    <row r="4" spans="1:30" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+    </row>
+    <row r="5" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+    </row>
+    <row r="6" spans="1:30" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+    </row>
+    <row r="7" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8">
+        <v>7.2953985269544788E-5</v>
+      </c>
+      <c r="E8">
+        <v>-6.2345345981174537E-4</v>
+      </c>
+      <c r="F8">
+        <v>-2.478469251975039E-3</v>
+      </c>
+      <c r="G8">
+        <v>-4.5565258417090979E-3</v>
+      </c>
+      <c r="H8">
+        <v>7.5854945682263409E-3</v>
+      </c>
+      <c r="I8">
+        <v>6.8709561444823932E-3</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8">
+        <v>9.1828585150839821E-4</v>
+      </c>
+      <c r="L8">
+        <v>-8.8616376336828984E-4</v>
+      </c>
+      <c r="M8">
+        <v>-3.3705044652667217E-3</v>
+      </c>
+      <c r="N8">
+        <v>-4.6560900658278179E-3</v>
+      </c>
+      <c r="O8">
+        <v>7.9944724429544742E-3</v>
+      </c>
+      <c r="P8">
+        <v>8.4646955648934579E-3</v>
+      </c>
+      <c r="Q8" s="9"/>
+      <c r="R8">
+        <v>5.614606906643514E-3</v>
+      </c>
+      <c r="S8">
+        <v>-1.2471251117758134E-2</v>
+      </c>
+      <c r="T8">
+        <v>1.1095917632650904E-2</v>
+      </c>
+      <c r="U8">
+        <v>-2.6966121969644419E-3</v>
+      </c>
+      <c r="V8">
+        <v>-1.5426612245718699E-3</v>
+      </c>
+      <c r="W8">
+        <v>-5.1063039046101655E-2</v>
+      </c>
+      <c r="X8" s="9"/>
+      <c r="Y8">
+        <v>-1.7068530469516471E-6</v>
+      </c>
+      <c r="Z8">
+        <v>2.226074013933771E-3</v>
+      </c>
+      <c r="AA8">
+        <v>-3.0983391165773492E-3</v>
+      </c>
+      <c r="AB8">
+        <v>-3.0744249883047749E-3</v>
+      </c>
+      <c r="AC8">
+        <v>3.9483969439952811E-3</v>
+      </c>
+      <c r="AD8">
+        <v>1.3826828942471956E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9">
+        <v>3.9471429438839897E-2</v>
+      </c>
+      <c r="E9">
+        <v>4.3726794225465972E-2</v>
+      </c>
+      <c r="F9">
+        <v>5.7314435653745333E-2</v>
+      </c>
+      <c r="G9">
+        <v>3.9476865316358856E-2</v>
+      </c>
+      <c r="H9">
+        <v>2.9550397007351254E-2</v>
+      </c>
+      <c r="I9">
+        <v>6.2119412106041966E-2</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9">
+        <v>7.4584342972065121E-2</v>
+      </c>
+      <c r="L9">
+        <v>7.8334018392388211E-2</v>
+      </c>
+      <c r="M9">
+        <v>7.743251446372984E-2</v>
+      </c>
+      <c r="N9">
+        <v>6.2143077472384761E-2</v>
+      </c>
+      <c r="O9">
+        <v>5.220324480914415E-2</v>
+      </c>
+      <c r="P9">
+        <v>0.10036049662606954</v>
+      </c>
+      <c r="Q9" s="12"/>
+      <c r="R9">
+        <v>8.8469520571462137E-2</v>
+      </c>
+      <c r="S9">
+        <v>7.1150824688957726E-2</v>
+      </c>
+      <c r="T9">
+        <v>0.14452426307590108</v>
+      </c>
+      <c r="U9">
+        <v>0.14701405883845606</v>
+      </c>
+      <c r="V9">
+        <v>8.7542791372206732E-2</v>
+      </c>
+      <c r="W9">
+        <v>0.17245315445057952</v>
+      </c>
+      <c r="X9" s="12"/>
+      <c r="Y9">
+        <v>4.507941030055506E-2</v>
+      </c>
+      <c r="Z9">
+        <v>5.2775146939165095E-2</v>
+      </c>
+      <c r="AA9">
+        <v>8.2390646247763918E-2</v>
+      </c>
+      <c r="AB9">
+        <v>6.6177208557306758E-2</v>
+      </c>
+      <c r="AC9">
+        <v>4.439918229111716E-2</v>
+      </c>
+      <c r="AD9">
+        <v>8.9083816920656117E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10">
+        <v>0.80761904761904757</v>
+      </c>
+      <c r="E10">
+        <v>0.87685714285714289</v>
+      </c>
+      <c r="F10">
+        <v>0.93704761904761902</v>
+      </c>
+      <c r="G10">
+        <v>0.88995238095238094</v>
+      </c>
+      <c r="H10">
+        <v>0.89709523809523806</v>
+      </c>
+      <c r="I10">
+        <v>0.94857142857142862</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10">
+        <v>0.82852380952380955</v>
+      </c>
+      <c r="L10">
+        <v>0.75185714285714289</v>
+      </c>
+      <c r="M10">
+        <v>0.91523809523809518</v>
+      </c>
+      <c r="N10">
+        <v>0.77823809523809528</v>
+      </c>
+      <c r="O10">
+        <v>0.8638095238095238</v>
+      </c>
+      <c r="P10">
+        <v>0.8945238095238095</v>
+      </c>
+      <c r="Q10" s="12"/>
+      <c r="R10">
+        <v>0.55885714285714283</v>
+      </c>
+      <c r="S10">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="T10">
+        <v>0.51042857142857145</v>
+      </c>
+      <c r="U10">
+        <v>0.64780952380952384</v>
+      </c>
+      <c r="V10">
+        <v>0.81366666666666665</v>
+      </c>
+      <c r="W10">
+        <v>0.53747619047619044</v>
+      </c>
+      <c r="X10" s="12"/>
+      <c r="Y10">
+        <v>0.76885714285714291</v>
+      </c>
+      <c r="Z10">
+        <v>0.80852380952380953</v>
+      </c>
+      <c r="AA10">
+        <v>0.87419047619047618</v>
+      </c>
+      <c r="AB10">
+        <v>0.68419047619047624</v>
+      </c>
+      <c r="AC10">
+        <v>0.52047619047619043</v>
+      </c>
+      <c r="AD10">
+        <v>0.89090476190476187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11">
+        <v>0.10283916497852344</v>
+      </c>
+      <c r="E11">
+        <v>0.16953739355954048</v>
+      </c>
+      <c r="F11">
+        <v>0.18895463234468196</v>
+      </c>
+      <c r="G11">
+        <v>0.17883169735375923</v>
+      </c>
+      <c r="H11">
+        <v>0.14254482056684992</v>
+      </c>
+      <c r="I11">
+        <v>0.23553722815116837</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11">
+        <v>0.14245284553959242</v>
+      </c>
+      <c r="L11">
+        <v>0.20317969445345838</v>
+      </c>
+      <c r="M11">
+        <v>0.23530223253604426</v>
+      </c>
+      <c r="N11">
+        <v>0.21194051007798195</v>
+      </c>
+      <c r="O11">
+        <v>0.20429660830582042</v>
+      </c>
+      <c r="P11">
+        <v>0.29447966725958763</v>
+      </c>
+      <c r="Q11" s="12"/>
+      <c r="R11">
+        <v>0.10563733771064694</v>
+      </c>
+      <c r="S11">
+        <v>0.16735179641079329</v>
+      </c>
+      <c r="T11">
+        <v>0.19563524734002477</v>
+      </c>
+      <c r="U11">
+        <v>0.18020541422914371</v>
+      </c>
+      <c r="V11">
+        <v>0.14415815185492106</v>
+      </c>
+      <c r="W11">
+        <v>0.23013039796369716</v>
+      </c>
+      <c r="X11" s="12"/>
+      <c r="Y11">
+        <v>0.15985120248300738</v>
+      </c>
+      <c r="Z11">
+        <v>0.18112949566303813</v>
+      </c>
+      <c r="AA11">
+        <v>0.20756327798250396</v>
+      </c>
+      <c r="AB11">
+        <v>0.1393700572685114</v>
+      </c>
+      <c r="AC11">
+        <v>0.11408187517643011</v>
+      </c>
+      <c r="AD11">
+        <v>0.27362351237403648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="16.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12">
+        <v>0.21783256848298768</v>
+      </c>
+      <c r="E12">
+        <v>0.30641976543112159</v>
+      </c>
+      <c r="F12">
+        <v>0.40405542211438705</v>
+      </c>
+      <c r="G12">
+        <v>0.31672881624996918</v>
+      </c>
+      <c r="H12">
+        <v>0.18047506506010519</v>
+      </c>
+      <c r="I12">
+        <v>0.50503786867495692</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12">
+        <v>0.23663506885241833</v>
+      </c>
+      <c r="L12">
+        <v>0.33485685546861993</v>
+      </c>
+      <c r="M12">
+        <v>0.4413513022816255</v>
+      </c>
+      <c r="N12">
+        <v>0.34569021991361115</v>
+      </c>
+      <c r="O12">
+        <v>0.19319376491083495</v>
+      </c>
+      <c r="P12">
+        <v>0.6757419198020147</v>
+      </c>
+      <c r="Q12" s="12"/>
+      <c r="R12">
+        <v>0.25130425805837486</v>
+      </c>
+      <c r="S12">
+        <v>0.32491276437281769</v>
+      </c>
+      <c r="T12">
+        <v>0.39699987251835606</v>
+      </c>
+      <c r="U12">
+        <v>0.28895022027406136</v>
+      </c>
+      <c r="V12">
+        <v>0.18817072501364865</v>
+      </c>
+      <c r="W12">
+        <v>0.51157587534692039</v>
+      </c>
+      <c r="X12" s="12"/>
+      <c r="Y12">
+        <v>0.2579276071516407</v>
+      </c>
+      <c r="Z12">
+        <v>0.36095243872661531</v>
+      </c>
+      <c r="AA12">
+        <v>0.42379374968046735</v>
+      </c>
+      <c r="AB12">
+        <v>0.33040421009860521</v>
+      </c>
+      <c r="AC12">
+        <v>0.20367703646497889</v>
+      </c>
+      <c r="AD12">
+        <v>0.68249192080531407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
+    </row>
+    <row r="14" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8">
+        <v>-0.5</v>
+      </c>
+      <c r="E14" s="8">
+        <v>-0.25</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="8">
+        <v>-0.5</v>
+      </c>
+      <c r="L14" s="8">
+        <v>-0.25</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="8">
+        <v>-0.5</v>
+      </c>
+      <c r="S14" s="8">
+        <v>-0.25</v>
+      </c>
+      <c r="T14" s="8">
+        <v>0</v>
+      </c>
+      <c r="U14" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="V14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="8">
+        <v>-0.5</v>
+      </c>
+      <c r="Z14" s="8">
+        <v>-0.25</v>
+      </c>
+      <c r="AA14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="AC14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AD14" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>1.9507089560492905E-4</v>
+      </c>
+      <c r="E15">
+        <v>-9.5399975547019863E-4</v>
+      </c>
+      <c r="F15">
+        <v>-1.8950466246329409E-3</v>
+      </c>
+      <c r="G15">
+        <v>-9.9250350602585035E-3</v>
+      </c>
+      <c r="H15">
+        <v>1.2579010544756833E-2</v>
+      </c>
+      <c r="I15">
+        <v>-4.3259492835535096E-3</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15">
+        <v>9.0441185039179129E-3</v>
+      </c>
+      <c r="L15">
+        <v>-1.0020213568577224E-2</v>
+      </c>
+      <c r="M15">
+        <v>-9.4529965021261497E-3</v>
+      </c>
+      <c r="N15">
+        <v>1.8313178328007403E-3</v>
+      </c>
+      <c r="O15">
+        <v>8.5977737339846001E-3</v>
+      </c>
+      <c r="P15">
+        <v>-3.2539375859528784E-3</v>
+      </c>
+      <c r="Q15" s="12"/>
+      <c r="R15">
+        <v>-7.7533821121610292E-3</v>
+      </c>
+      <c r="S15">
+        <v>1.668647712637893E-2</v>
+      </c>
+      <c r="T15">
+        <v>-4.4297905509362037E-2</v>
+      </c>
+      <c r="U15">
+        <v>4.9933107827560455E-2</v>
+      </c>
+      <c r="V15">
+        <v>-1.4568297332416033E-2</v>
+      </c>
+      <c r="W15">
+        <v>-3.4894947040726834E-2</v>
+      </c>
+      <c r="X15" s="12"/>
+      <c r="Y15">
+        <v>2.517492809559489E-3</v>
+      </c>
+      <c r="Z15">
+        <v>-1.7214706505616023E-3</v>
+      </c>
+      <c r="AA15">
+        <v>-6.3766801578577503E-3</v>
+      </c>
+      <c r="AB15">
+        <v>-9.4869373957897681E-3</v>
+      </c>
+      <c r="AC15">
+        <v>1.5067595394649549E-2</v>
+      </c>
+      <c r="AD15">
+        <v>-3.095476250547667E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>2.4971481470010643E-3</v>
+      </c>
+      <c r="E16">
+        <v>1.7617445396685884E-3</v>
+      </c>
+      <c r="F16">
+        <v>-5.6187454385330643E-4</v>
+      </c>
+      <c r="G16">
+        <v>-9.2326101180319371E-3</v>
+      </c>
+      <c r="H16">
+        <v>5.5355919752156004E-3</v>
+      </c>
+      <c r="I16">
+        <v>-1.8769101453492993E-3</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16">
+        <v>5.2843484444927979E-2</v>
+      </c>
+      <c r="L16">
+        <v>-3.3438389012969374E-2</v>
+      </c>
+      <c r="M16">
+        <v>-2.2719073903856819E-2</v>
+      </c>
+      <c r="N16">
+        <v>-9.7596996335569603E-4</v>
+      </c>
+      <c r="O16">
+        <v>4.2899484352539943E-3</v>
+      </c>
+      <c r="P16">
+        <v>-6.6003816447120561E-3</v>
+      </c>
+      <c r="Q16" s="12"/>
+      <c r="R16">
+        <v>-5.8108148672931778E-2</v>
+      </c>
+      <c r="S16">
+        <v>9.7174697520505601E-3</v>
+      </c>
+      <c r="T16">
+        <v>8.0265458961336855E-2</v>
+      </c>
+      <c r="U16">
+        <v>4.7071285158678672E-2</v>
+      </c>
+      <c r="V16">
+        <v>-7.8946065199134718E-2</v>
+      </c>
+      <c r="W16">
+        <v>9.0381154312372397E-3</v>
+      </c>
+      <c r="X16" s="12"/>
+      <c r="Y16">
+        <v>-8.0378523997414332E-4</v>
+      </c>
+      <c r="Z16">
+        <v>-1.1828633332292074E-3</v>
+      </c>
+      <c r="AA16">
+        <v>2.899630353295336E-3</v>
+      </c>
+      <c r="AB16">
+        <v>-6.0232783924756741E-2</v>
+      </c>
+      <c r="AC16">
+        <v>5.9319802144664792E-2</v>
+      </c>
+      <c r="AD16">
+        <v>-3.2352618624244319E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>-6.3996830752320148E-3</v>
+      </c>
+      <c r="E17">
+        <v>-4.9984341316777021E-3</v>
+      </c>
+      <c r="F17">
+        <v>-4.2938706341128273E-3</v>
+      </c>
+      <c r="G17">
+        <v>-4.4267418024723012E-4</v>
+      </c>
+      <c r="H17">
+        <v>1.6134662021269695E-2</v>
+      </c>
+      <c r="I17">
+        <v>-6.2109843874753774E-3</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17">
+        <v>6.7357414508145558E-2</v>
+      </c>
+      <c r="L17">
+        <v>-8.5119415702296364E-2</v>
+      </c>
+      <c r="M17">
+        <v>9.0235716112328675E-3</v>
+      </c>
+      <c r="N17">
+        <v>4.145563338278737E-2</v>
+      </c>
+      <c r="O17">
+        <v>-3.2717203799869303E-2</v>
+      </c>
+      <c r="P17">
+        <v>6.959118876719665E-3</v>
+      </c>
+      <c r="Q17" s="12"/>
+      <c r="R17">
+        <v>-0.10895330280917993</v>
+      </c>
+      <c r="S17">
+        <v>8.1891480654278828E-2</v>
+      </c>
+      <c r="T17">
+        <v>0.25353121508997956</v>
+      </c>
+      <c r="U17">
+        <v>-0.2493422437587221</v>
+      </c>
+      <c r="V17">
+        <v>2.2872850823641998E-2</v>
+      </c>
+      <c r="W17">
+        <v>-1.926676438116982E-2</v>
+      </c>
+      <c r="X17" s="12"/>
+      <c r="Y17">
+        <v>-8.971856333206801E-3</v>
+      </c>
+      <c r="Z17">
+        <v>-2.5624748250065225E-2</v>
+      </c>
+      <c r="AA17">
+        <v>3.0015195615684661E-2</v>
+      </c>
+      <c r="AB17">
+        <v>-6.9552571034011117E-3</v>
+      </c>
+      <c r="AC17">
+        <v>1.1536666070988589E-2</v>
+      </c>
+      <c r="AD17">
+        <v>-1.6747523291674256E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>-1.9852781509169696E-4</v>
+      </c>
+      <c r="E18">
+        <v>-4.0151811777832427E-4</v>
+      </c>
+      <c r="F18">
+        <v>-3.6935316102381017E-4</v>
+      </c>
+      <c r="G18">
+        <v>-1.196626841240705E-3</v>
+      </c>
+      <c r="H18">
+        <v>2.1660259351345239E-3</v>
+      </c>
+      <c r="I18">
+        <v>-7.2962774672994237E-4</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18">
+        <v>-6.2332762595286376E-3</v>
+      </c>
+      <c r="L18">
+        <v>5.274750658412201E-5</v>
+      </c>
+      <c r="M18">
+        <v>1.0077989172720445E-2</v>
+      </c>
+      <c r="N18">
+        <v>2.7466342136086069E-3</v>
+      </c>
+      <c r="O18">
+        <v>-6.6440946333845398E-3</v>
+      </c>
+      <c r="P18">
+        <v>4.098321097504209E-3</v>
+      </c>
+      <c r="Q18" s="12"/>
+      <c r="R18">
+        <v>2.0926467527310278E-3</v>
+      </c>
+      <c r="S18">
+        <v>5.7248923398030309E-3</v>
+      </c>
+      <c r="T18">
+        <v>-5.9347514111629043E-3</v>
+      </c>
+      <c r="U18">
+        <v>-8.6897524014926866E-3</v>
+      </c>
+      <c r="V18">
+        <v>6.8069647201216251E-3</v>
+      </c>
+      <c r="W18">
+        <v>-7.3795319577817644E-3</v>
+      </c>
+      <c r="X18" s="12"/>
+      <c r="Y18">
+        <v>-2.7068234201467668E-4</v>
+      </c>
+      <c r="Z18">
+        <v>2.0206119006322648E-4</v>
+      </c>
+      <c r="AA18">
+        <v>1.7488949482607416E-3</v>
+      </c>
+      <c r="AB18">
+        <v>-2.0279982184911358E-3</v>
+      </c>
+      <c r="AC18">
+        <v>3.477244221818459E-4</v>
+      </c>
+      <c r="AD18">
+        <v>9.6473059543874439E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>4.9164765754384415E-2</v>
+      </c>
+      <c r="E19">
+        <v>7.6394361884852852E-2</v>
+      </c>
+      <c r="F19">
+        <v>8.9725396478995342E-2</v>
+      </c>
+      <c r="G19">
+        <v>6.7328908646492117E-2</v>
+      </c>
+      <c r="H19">
+        <v>4.381291623475192E-2</v>
+      </c>
+      <c r="I19">
+        <v>9.9224400950232272E-2</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19">
+        <v>0.11489037420019781</v>
+      </c>
+      <c r="L19">
+        <v>0.12423444188914164</v>
+      </c>
+      <c r="M19">
+        <v>0.1326224185398619</v>
+      </c>
+      <c r="N19">
+        <v>0.11265902675219031</v>
+      </c>
+      <c r="O19">
+        <v>9.6201699712612609E-2</v>
+      </c>
+      <c r="P19">
+        <v>0.16491724270072647</v>
+      </c>
+      <c r="Q19" s="12"/>
+      <c r="R19">
+        <v>0.11604446589972832</v>
+      </c>
+      <c r="S19">
+        <v>0.12201892160800176</v>
+      </c>
+      <c r="T19">
+        <v>0.21802148202422023</v>
+      </c>
+      <c r="U19">
+        <v>0.17196081337537061</v>
+      </c>
+      <c r="V19">
+        <v>0.15384181167292876</v>
+      </c>
+      <c r="W19">
+        <v>0.23086054448194687</v>
+      </c>
+      <c r="X19" s="12"/>
+      <c r="Y19">
+        <v>5.955658233460142E-2</v>
+      </c>
+      <c r="Z19">
+        <v>8.8574727816708082E-2</v>
+      </c>
+      <c r="AA19">
+        <v>0.16794482509231751</v>
+      </c>
+      <c r="AB19">
+        <v>0.1694240389814767</v>
+      </c>
+      <c r="AC19">
+        <v>0.13291058739574196</v>
+      </c>
+      <c r="AD19">
+        <v>0.198303333523144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>3.4721077723311622E-2</v>
+      </c>
+      <c r="E20">
+        <v>4.4879247692330287E-2</v>
+      </c>
+      <c r="F20">
+        <v>5.9499417031067231E-2</v>
+      </c>
+      <c r="G20">
+        <v>4.2966329575394896E-2</v>
+      </c>
+      <c r="H20">
+        <v>2.7392459218819918E-2</v>
+      </c>
+      <c r="I20">
+        <v>6.3432044363892853E-2</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20">
+        <v>0.12135540108006784</v>
+      </c>
+      <c r="L20">
+        <v>0.10606006997225986</v>
+      </c>
+      <c r="M20">
+        <v>9.2460780527009914E-2</v>
+      </c>
+      <c r="N20">
+        <v>7.7774943969820903E-2</v>
+      </c>
+      <c r="O20">
+        <v>6.9828259142175789E-2</v>
+      </c>
+      <c r="P20">
+        <v>0.1363910230441342</v>
+      </c>
+      <c r="Q20" s="12"/>
+      <c r="R20">
+        <v>0.13557346705994008</v>
+      </c>
+      <c r="S20">
+        <v>9.6239826650091231E-2</v>
+      </c>
+      <c r="T20">
+        <v>0.19589053702715806</v>
+      </c>
+      <c r="U20">
+        <v>0.21750362194259679</v>
+      </c>
+      <c r="V20">
+        <v>0.22945620691664381</v>
+      </c>
+      <c r="W20">
+        <v>0.26131875883383227</v>
+      </c>
+      <c r="X20" s="12"/>
+      <c r="Y20">
+        <v>1.9250419781610861E-2</v>
+      </c>
+      <c r="Z20">
+        <v>4.9425938189570452E-2</v>
+      </c>
+      <c r="AA20">
+        <v>0.14866351715505169</v>
+      </c>
+      <c r="AB20">
+        <v>0.35185081410967911</v>
+      </c>
+      <c r="AC20">
+        <v>0.33334858566975067</v>
+      </c>
+      <c r="AD20">
+        <v>0.33357121352607677</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>6.2245408248533023E-2</v>
+      </c>
+      <c r="E21">
+        <v>8.0019785102120045E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.11563920613869984</v>
+      </c>
+      <c r="G21">
+        <v>7.8105925217961017E-2</v>
+      </c>
+      <c r="H21">
+        <v>5.7328582579002661E-2</v>
+      </c>
+      <c r="I21">
+        <v>0.11862457252478216</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21">
+        <v>0.17473433313419701</v>
+      </c>
+      <c r="L21">
+        <v>0.19365057811159234</v>
+      </c>
+      <c r="M21">
+        <v>0.20017437555307951</v>
+      </c>
+      <c r="N21">
+        <v>0.14347908532501355</v>
+      </c>
+      <c r="O21">
+        <v>0.12030967414304536</v>
+      </c>
+      <c r="P21">
+        <v>0.24838981575357907</v>
+      </c>
+      <c r="Q21" s="12"/>
+      <c r="R21">
+        <v>0.29388033775274536</v>
+      </c>
+      <c r="S21">
+        <v>0.24872516565838329</v>
+      </c>
+      <c r="T21">
+        <v>0.65277562808972478</v>
+      </c>
+      <c r="U21">
+        <v>0.50661930569601199</v>
+      </c>
+      <c r="V21">
+        <v>0.2203557377203583</v>
+      </c>
+      <c r="W21">
+        <v>0.62962625706616571</v>
+      </c>
+      <c r="X21" s="12"/>
+      <c r="Y21">
+        <v>7.5619507836584457E-2</v>
+      </c>
+      <c r="Z21">
+        <v>0.18324263645016994</v>
+      </c>
+      <c r="AA21">
+        <v>0.40385261440948533</v>
+      </c>
+      <c r="AB21">
+        <v>0.27958622953606088</v>
+      </c>
+      <c r="AC21">
+        <v>0.13774926446931798</v>
+      </c>
+      <c r="AD21">
+        <v>0.37363031729224755</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>1.0700094894244748E-2</v>
+      </c>
+      <c r="E22">
+        <v>1.3995850353480646E-2</v>
+      </c>
+      <c r="F22">
+        <v>2.0174488036282225E-2</v>
+      </c>
+      <c r="G22">
+        <v>1.3431490521362581E-2</v>
+      </c>
+      <c r="H22">
+        <v>9.5930908711883561E-3</v>
+      </c>
+      <c r="I22">
+        <v>2.0453178843334474E-2</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22">
+        <v>2.4997687169368749E-2</v>
+      </c>
+      <c r="L22">
+        <v>2.7716847202370193E-2</v>
+      </c>
+      <c r="M22">
+        <v>3.307907249014716E-2</v>
+      </c>
+      <c r="N22">
+        <v>2.2566500841903238E-2</v>
+      </c>
+      <c r="O22">
+        <v>2.1212276862169501E-2</v>
+      </c>
+      <c r="P22">
+        <v>3.79604937451243E-2</v>
+      </c>
+      <c r="Q22" s="12"/>
+      <c r="R22">
+        <v>1.7892961326903597E-2</v>
+      </c>
+      <c r="S22">
+        <v>2.085548258445041E-2</v>
+      </c>
+      <c r="T22">
+        <v>4.2767986027154606E-2</v>
+      </c>
+      <c r="U22">
+        <v>3.1031718115773519E-2</v>
+      </c>
+      <c r="V22">
+        <v>2.3082405515357257E-2</v>
+      </c>
+      <c r="W22">
+        <v>4.2835655789427225E-2</v>
+      </c>
+      <c r="X22" s="12"/>
+      <c r="Y22">
+        <v>1.57409323271888E-2</v>
+      </c>
+      <c r="Z22">
+        <v>1.99760194911788E-2</v>
+      </c>
+      <c r="AA22">
+        <v>3.5170315699974135E-2</v>
+      </c>
+      <c r="AB22">
+        <v>2.3609612417692841E-2</v>
+      </c>
+      <c r="AC22">
+        <v>9.5649696006726674E-3</v>
+      </c>
+      <c r="AD22">
+        <v>3.3987247125765736E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>0.82580952380952377</v>
+      </c>
+      <c r="E23">
+        <v>0.88814285714285712</v>
+      </c>
+      <c r="F23">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="G23">
+        <v>0.9070476190476191</v>
+      </c>
+      <c r="H23">
+        <v>0.90666666666666662</v>
+      </c>
+      <c r="I23">
+        <v>0.95590476190476192</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="K23">
+        <v>0.80957142857142861</v>
+      </c>
+      <c r="L23">
+        <v>0.76104761904761908</v>
+      </c>
+      <c r="M23">
+        <v>0.9329047619047619</v>
+      </c>
+      <c r="N23">
+        <v>0.80109523809523808</v>
+      </c>
+      <c r="O23">
+        <v>0.8608095238095238</v>
+      </c>
+      <c r="P23">
+        <v>0.89880952380952384</v>
+      </c>
+      <c r="Q23" s="12"/>
+      <c r="R23">
+        <v>0.50190476190476185</v>
+      </c>
+      <c r="S23">
+        <v>0.8112380952380952</v>
+      </c>
+      <c r="T23">
+        <v>0.50109523809523815</v>
+      </c>
+      <c r="U23">
+        <v>0.63671428571428568</v>
+      </c>
+      <c r="V23">
+        <v>0.72819047619047617</v>
+      </c>
+      <c r="W23">
+        <v>0.53709523809523807</v>
+      </c>
+      <c r="X23" s="12"/>
+      <c r="Y23">
+        <v>0.78419047619047622</v>
+      </c>
+      <c r="Z23">
+        <v>0.81890476190476191</v>
+      </c>
+      <c r="AA23">
+        <v>0.90109523809523806</v>
+      </c>
+      <c r="AB23">
+        <v>0.72857142857142854</v>
+      </c>
+      <c r="AC23">
+        <v>0.59314285714285719</v>
+      </c>
+      <c r="AD23">
+        <v>0.91438095238095241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>0.81228571428571428</v>
+      </c>
+      <c r="E24">
+        <v>0.88057142857142856</v>
+      </c>
+      <c r="F24">
+        <v>0.93728571428571428</v>
+      </c>
+      <c r="G24">
+        <v>0.88838095238095238</v>
+      </c>
+      <c r="H24">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="I24">
+        <v>0.94561904761904758</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24">
+        <v>0.62328571428571433</v>
+      </c>
+      <c r="L24">
+        <v>0.62214285714285711</v>
+      </c>
+      <c r="M24">
+        <v>0.88847619047619053</v>
+      </c>
+      <c r="N24">
+        <v>0.80552380952380953</v>
+      </c>
+      <c r="O24">
+        <v>0.87047619047619051</v>
+      </c>
+      <c r="P24">
+        <v>0.77409523809523806</v>
+      </c>
+      <c r="Q24" s="12"/>
+      <c r="R24">
+        <v>0.42833333333333334</v>
+      </c>
+      <c r="S24">
+        <v>0.71142857142857141</v>
+      </c>
+      <c r="T24">
+        <v>0.32333333333333331</v>
+      </c>
+      <c r="U24">
+        <v>0.59233333333333338</v>
+      </c>
+      <c r="V24">
+        <v>0.66142857142857148</v>
+      </c>
+      <c r="W24">
+        <v>0.35685714285714287</v>
+      </c>
+      <c r="X24" s="12"/>
+      <c r="Y24">
+        <v>0.70409523809523811</v>
+      </c>
+      <c r="Z24">
+        <v>0.7368095238095238</v>
+      </c>
+      <c r="AA24">
+        <v>0.81338095238095243</v>
+      </c>
+      <c r="AB24">
+        <v>0.7162857142857143</v>
+      </c>
+      <c r="AC24">
+        <v>0.58352380952380956</v>
+      </c>
+      <c r="AD24">
+        <v>0.82276190476190481</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <v>0.84738095238095235</v>
+      </c>
+      <c r="E25">
+        <v>0.90523809523809529</v>
+      </c>
+      <c r="F25">
+        <v>0.96104761904761904</v>
+      </c>
+      <c r="G25">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="H25">
+        <v>0.91052380952380951</v>
+      </c>
+      <c r="I25">
+        <v>0.96547619047619049</v>
+      </c>
+      <c r="J25" s="12"/>
+      <c r="K25">
+        <v>0.6920952380952381</v>
+      </c>
+      <c r="L25">
+        <v>0.67809523809523808</v>
+      </c>
+      <c r="M25">
+        <v>0.89761904761904765</v>
+      </c>
+      <c r="N25">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.74623809523809526</v>
+      </c>
+      <c r="P25">
+        <v>0.7493333333333333</v>
+      </c>
+      <c r="Q25" s="12"/>
+      <c r="R25">
+        <v>0.36961904761904762</v>
+      </c>
+      <c r="S25">
+        <v>0.62490476190476185</v>
+      </c>
+      <c r="T25">
+        <v>0.252</v>
+      </c>
+      <c r="U25">
+        <v>0.51171428571428568</v>
+      </c>
+      <c r="V25">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="W25">
+        <v>0.2792857142857143</v>
+      </c>
+      <c r="X25" s="12"/>
+      <c r="Y25">
+        <v>0.72376190476190472</v>
+      </c>
+      <c r="Z25">
+        <v>0.75338095238095237</v>
+      </c>
+      <c r="AA25">
+        <v>0.82404761904761903</v>
+      </c>
+      <c r="AB25">
+        <v>0.70338095238095233</v>
+      </c>
+      <c r="AC25">
+        <v>0.52752380952380951</v>
+      </c>
+      <c r="AD25">
+        <v>0.82623809523809522</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>0.81747619047619047</v>
+      </c>
+      <c r="E26">
+        <v>0.89423809523809528</v>
+      </c>
+      <c r="F26">
+        <v>0.94304761904761902</v>
+      </c>
+      <c r="G26">
+        <v>0.89885714285714291</v>
+      </c>
+      <c r="H26">
+        <v>0.90447619047619043</v>
+      </c>
+      <c r="I26">
+        <v>0.95285714285714285</v>
+      </c>
+      <c r="J26" s="12"/>
+      <c r="K26">
+        <v>0.87476190476190474</v>
+      </c>
+      <c r="L26">
+        <v>0.80614285714285716</v>
+      </c>
+      <c r="M26">
+        <v>0.91223809523809529</v>
+      </c>
+      <c r="N26">
+        <v>0.74471428571428566</v>
+      </c>
+      <c r="O26">
+        <v>0.72323809523809524</v>
+      </c>
+      <c r="P26">
+        <v>0.86928571428571433</v>
+      </c>
+      <c r="Q26" s="12"/>
+      <c r="R26">
+        <v>0.54023809523809518</v>
+      </c>
+      <c r="S26">
+        <v>0.80419047619047623</v>
+      </c>
+      <c r="T26">
+        <v>0.5485714285714286</v>
+      </c>
+      <c r="U26">
+        <v>0.68547619047619046</v>
+      </c>
+      <c r="V26">
+        <v>0.80809523809523809</v>
+      </c>
+      <c r="W26">
+        <v>0.56004761904761902</v>
+      </c>
+      <c r="X26" s="12"/>
+      <c r="Y26">
+        <v>0.78866666666666663</v>
+      </c>
+      <c r="Z26">
+        <v>0.81128571428571428</v>
+      </c>
+      <c r="AA26">
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="AB26">
+        <v>0.69766666666666666</v>
+      </c>
+      <c r="AC26">
+        <v>0.52323809523809528</v>
+      </c>
+      <c r="AD26">
+        <v>0.88676190476190475</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>0.13611318067540357</v>
+      </c>
+      <c r="E27">
+        <v>0.2587835633158837</v>
+      </c>
+      <c r="F27">
+        <v>0.20368165558236359</v>
+      </c>
+      <c r="G27">
+        <v>0.26827569364930887</v>
+      </c>
+      <c r="H27">
+        <v>0.17284335262460546</v>
+      </c>
+      <c r="I27">
+        <v>0.23683821139384015</v>
+      </c>
+      <c r="J27" s="22"/>
+      <c r="K27">
+        <v>0.25175464304969553</v>
+      </c>
+      <c r="L27">
+        <v>0.34612211256488679</v>
+      </c>
+      <c r="M27">
+        <v>0.26830640472089418</v>
+      </c>
+      <c r="N27">
+        <v>0.36739277897318745</v>
+      </c>
+      <c r="O27">
+        <v>0.31307658245214959</v>
+      </c>
+      <c r="P27">
+        <v>0.32355971745353296</v>
+      </c>
+      <c r="Q27" s="22"/>
+      <c r="R27">
+        <v>0.13972955876234019</v>
+      </c>
+      <c r="S27">
+        <v>0.26605002025165014</v>
+      </c>
+      <c r="T27">
+        <v>0.20475952010078716</v>
+      </c>
+      <c r="U27">
+        <v>0.27155366889084698</v>
+      </c>
+      <c r="V27">
+        <v>0.1694382104629735</v>
+      </c>
+      <c r="W27">
+        <v>0.24910558961090679</v>
+      </c>
+      <c r="X27" s="22"/>
+      <c r="Y27">
+        <v>0.25277201489586992</v>
+      </c>
+      <c r="Z27">
+        <v>0.33508837597347341</v>
+      </c>
+      <c r="AA27">
+        <v>0.2894996432530908</v>
+      </c>
+      <c r="AB27">
+        <v>0.30837503680789341</v>
+      </c>
+      <c r="AC27">
+        <v>0.18296414450554732</v>
+      </c>
+      <c r="AD27">
+        <v>0.33217269560058715</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>0.15651969724459616</v>
+      </c>
+      <c r="E28">
+        <v>0.26553994497190786</v>
+      </c>
+      <c r="F28">
+        <v>0.22927188036074247</v>
+      </c>
+      <c r="G28">
+        <v>0.28406626931116946</v>
+      </c>
+      <c r="H28">
+        <v>0.18834772726573398</v>
+      </c>
+      <c r="I28">
+        <v>0.26013102794791759</v>
+      </c>
+      <c r="J28" s="22"/>
+      <c r="K28">
+        <v>0.33813902401840756</v>
+      </c>
+      <c r="L28">
+        <v>0.34364076627079909</v>
+      </c>
+      <c r="M28">
+        <v>0.3244839199055744</v>
+      </c>
+      <c r="N28">
+        <v>0.42511460453683375</v>
+      </c>
+      <c r="O28">
+        <v>0.35668738460810229</v>
+      </c>
+      <c r="P28">
+        <v>0.35327168991959751</v>
+      </c>
+      <c r="Q28" s="22"/>
+      <c r="R28">
+        <v>0.16414019962195919</v>
+      </c>
+      <c r="S28">
+        <v>0.27050845171843985</v>
+      </c>
+      <c r="T28">
+        <v>0.23416470430428227</v>
+      </c>
+      <c r="U28">
+        <v>0.29255123030186925</v>
+      </c>
+      <c r="V28">
+        <v>0.1823848166462525</v>
+      </c>
+      <c r="W28">
+        <v>0.2736532703232295</v>
+      </c>
+      <c r="X28" s="22"/>
+      <c r="Y28">
+        <v>0.29924749129637279</v>
+      </c>
+      <c r="Z28">
+        <v>0.32462379354218268</v>
+      </c>
+      <c r="AA28">
+        <v>0.4498985695841371</v>
+      </c>
+      <c r="AB28">
+        <v>0.80827828249466793</v>
+      </c>
+      <c r="AC28">
+        <v>0.63849645847038694</v>
+      </c>
+      <c r="AD28">
+        <v>0.66483856706172351</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <v>0.18646327408228944</v>
+      </c>
+      <c r="E29">
+        <v>0.30101623084149198</v>
+      </c>
+      <c r="F29">
+        <v>0.27992319707871299</v>
+      </c>
+      <c r="G29">
+        <v>0.32350669940152255</v>
+      </c>
+      <c r="H29">
+        <v>0.21285481736288264</v>
+      </c>
+      <c r="I29">
+        <v>0.30603300545907386</v>
+      </c>
+      <c r="J29" s="22"/>
+      <c r="K29">
+        <v>0.34356073424412159</v>
+      </c>
+      <c r="L29">
+        <v>0.38397299616893033</v>
+      </c>
+      <c r="M29">
+        <v>0.38757260604533644</v>
+      </c>
+      <c r="N29">
+        <v>0.41068803625841677</v>
+      </c>
+      <c r="O29">
+        <v>0.40635194897187604</v>
+      </c>
+      <c r="P29">
+        <v>0.37887321433884347</v>
+      </c>
+      <c r="Q29" s="22"/>
+      <c r="R29">
+        <v>0.17076612849144795</v>
+      </c>
+      <c r="S29">
+        <v>0.2858524238055295</v>
+      </c>
+      <c r="T29">
+        <v>0.25309679323926826</v>
+      </c>
+      <c r="U29">
+        <v>0.30571152142223029</v>
+      </c>
+      <c r="V29">
+        <v>0.19126011877907734</v>
+      </c>
+      <c r="W29">
+        <v>0.28625686369896558</v>
+      </c>
+      <c r="X29" s="22"/>
+      <c r="Y29">
+        <v>0.30137371128536267</v>
+      </c>
+      <c r="Z29">
+        <v>0.32669630369300984</v>
+      </c>
+      <c r="AA29">
+        <v>0.30613844467351647</v>
+      </c>
+      <c r="AB29">
+        <v>0.26375227762399556</v>
+      </c>
+      <c r="AC29">
+        <v>0.18678081328055174</v>
+      </c>
+      <c r="AD29">
+        <v>0.29641998163225858</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30">
+        <v>0.17635032913188994</v>
+      </c>
+      <c r="E30">
+        <v>0.30690803438229353</v>
+      </c>
+      <c r="F30">
+        <v>0.277813807316376</v>
+      </c>
+      <c r="G30">
+        <v>0.3217507082878569</v>
+      </c>
+      <c r="H30">
+        <v>0.21123027764151914</v>
+      </c>
+      <c r="I30">
+        <v>0.30319516594628881</v>
+      </c>
+      <c r="J30" s="17"/>
+      <c r="K30">
+        <v>0.26533137510662119</v>
+      </c>
+      <c r="L30">
+        <v>0.39265761388245768</v>
+      </c>
+      <c r="M30">
+        <v>0.3691426165974046</v>
+      </c>
+      <c r="N30">
+        <v>0.41385638758812271</v>
+      </c>
+      <c r="O30">
+        <v>0.40267748195131825</v>
+      </c>
+      <c r="P30">
+        <v>0.3946991236596496</v>
+      </c>
+      <c r="Q30" s="17"/>
+      <c r="R30">
+        <v>0.19291930622627998</v>
+      </c>
+      <c r="S30">
+        <v>0.32724128880599163</v>
+      </c>
+      <c r="T30">
+        <v>0.2986319995808222</v>
+      </c>
+      <c r="U30">
+        <v>0.34237620862480295</v>
+      </c>
+      <c r="V30">
+        <v>0.2159531681927338</v>
+      </c>
+      <c r="W30">
+        <v>0.32925531431993738</v>
+      </c>
+      <c r="X30" s="17"/>
+      <c r="Y30">
+        <v>0.31784608280946997</v>
+      </c>
+      <c r="Z30">
+        <v>0.37569541125589456</v>
+      </c>
+      <c r="AA30">
+        <v>0.34761784195729867</v>
+      </c>
+      <c r="AB30">
+        <v>0.29253407429262257</v>
+      </c>
+      <c r="AC30">
+        <v>0.19796616305274428</v>
+      </c>
+      <c r="AD30">
+        <v>0.36582252624698081</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+    </row>
+    <row r="32" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32">
+        <v>0.46</v>
+      </c>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32">
+        <v>0.46</v>
+      </c>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32">
+        <v>0.04</v>
+      </c>
+      <c r="Y32">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33">
+        <v>0.5</v>
+      </c>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+    </row>
+    <row r="34" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="D34">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34">
+        <v>0.44</v>
+      </c>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+    </row>
+    <row r="35" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="D35">
+        <v>0.96</v>
+      </c>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35">
+        <v>0.04</v>
+      </c>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+    </row>
+    <row r="36" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="28"/>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36">
+        <v>0.1</v>
+      </c>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36">
+        <v>0.9</v>
+      </c>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+    </row>
+    <row r="37" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37">
+        <v>0.02</v>
+      </c>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37">
+        <v>0.98</v>
+      </c>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+    </row>
+    <row r="38" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="28"/>
+      <c r="D38">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38">
+        <v>0.42</v>
+      </c>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+    </row>
+    <row r="39" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39">
+        <v>0.06</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39">
+        <v>0.03</v>
+      </c>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+    </row>
+    <row r="40" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40">
+        <v>0.64</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40">
+        <v>0.01</v>
+      </c>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40">
+        <v>0.98</v>
+      </c>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+    </row>
+    <row r="41" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41">
+        <v>0.98</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41">
+        <v>0.48</v>
+      </c>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+    </row>
+    <row r="42" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42">
+        <v>0.12</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42">
+        <v>0.22</v>
+      </c>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+    </row>
+    <row r="43" spans="1:30" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43">
+        <v>0.88</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43">
+        <v>0.01</v>
+      </c>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43">
+        <v>0.01</v>
+      </c>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43">
+        <v>0.95</v>
+      </c>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+    </row>
+    <row r="44" spans="1:30" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44">
+        <v>0.12</v>
+      </c>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
+      <c r="X44" s="17"/>
+      <c r="Y44">
+        <v>0.37</v>
+      </c>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+    </row>
+    <row r="45" spans="1:30" ht="4.9000000000000004" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B48" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B49" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>5.2416093725950894E-2</v>
+      </c>
+      <c r="E49">
+        <v>-1.6707823851274E-3</v>
+      </c>
+      <c r="F49">
+        <v>0.12731194306252877</v>
+      </c>
+      <c r="G49">
+        <v>1.1616908690682817E-2</v>
+      </c>
+      <c r="H49">
+        <v>0.16401895428941785</v>
+      </c>
+      <c r="I49">
+        <v>0.20178391985439392</v>
+      </c>
+      <c r="J49">
+        <v>0.27234812803963088</v>
+      </c>
+      <c r="K49">
+        <v>0.20116022664371599</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B50" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>0.19731034714785381</v>
+      </c>
+      <c r="E50">
+        <v>0.15322707541071454</v>
+      </c>
+      <c r="F50">
+        <v>0.34656802529497199</v>
+      </c>
+      <c r="G50">
+        <v>6.1398009799696812E-2</v>
+      </c>
+      <c r="H50">
+        <v>0.50156972094751573</v>
+      </c>
+      <c r="I50">
+        <v>0.53573689955544734</v>
+      </c>
+      <c r="J50">
+        <v>0.66423013875839032</v>
+      </c>
+      <c r="K50">
+        <v>0.69632064868400245</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B51" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>0.96</v>
+      </c>
+      <c r="E51">
+        <v>0.95</v>
+      </c>
+      <c r="F51">
+        <v>0.98</v>
+      </c>
+      <c r="G51">
+        <v>0.95</v>
+      </c>
+      <c r="H51">
+        <v>0.97</v>
+      </c>
+      <c r="I51">
+        <v>0.97</v>
+      </c>
+      <c r="J51">
+        <v>0.95</v>
+      </c>
+      <c r="K51">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <v>1.0193982649191287</v>
+      </c>
+      <c r="E52">
+        <v>0.96073669157473751</v>
+      </c>
+      <c r="F52">
+        <v>1.09381804393176</v>
+      </c>
+      <c r="G52">
+        <v>0.9713067944099657</v>
+      </c>
+      <c r="H52">
+        <v>1.1448677163687579</v>
+      </c>
+      <c r="I52">
+        <v>1.1091121241060848</v>
+      </c>
+      <c r="J52">
+        <v>1.0818463223291139</v>
+      </c>
+      <c r="K52">
+        <v>1.0629994923559276</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B54" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B55" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>0.18284417800031974</v>
+      </c>
+      <c r="E55">
+        <v>2.9710442053546702E-2</v>
+      </c>
+      <c r="F55">
+        <v>0.58022877696477371</v>
+      </c>
+      <c r="G55">
+        <v>1.9660238003398375E-2</v>
+      </c>
+      <c r="H55">
+        <v>0.82269321231348502</v>
+      </c>
+      <c r="I55">
+        <v>1.058925706983924</v>
+      </c>
+      <c r="J55">
+        <v>0.69693969418271751</v>
+      </c>
+      <c r="K55">
+        <v>2.2582602933731253</v>
+      </c>
+      <c r="L55">
+        <v>-0.87525472144503746</v>
+      </c>
+      <c r="M55">
+        <v>2.3208605129136362</v>
+      </c>
+      <c r="N55">
+        <v>-1.9129104995588243E-3</v>
+      </c>
+      <c r="O55">
+        <v>9.9531046303627489E-3</v>
+      </c>
+      <c r="P55">
+        <v>3.6158685362571247E-2</v>
+      </c>
+      <c r="Q55">
+        <v>0.24260901940534324</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B56" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>0.59073880787084321</v>
+      </c>
+      <c r="E56">
+        <v>0.52888507588603806</v>
+      </c>
+      <c r="F56">
+        <v>1.5276988193516905</v>
+      </c>
+      <c r="G56">
+        <v>0.13981716046041645</v>
+      </c>
+      <c r="H56">
+        <v>2.7186788077423731</v>
+      </c>
+      <c r="I56">
+        <v>3.0863399428271419</v>
+      </c>
+      <c r="J56">
+        <v>1.4334996522642973</v>
+      </c>
+      <c r="K56">
+        <v>3.7789102929185261</v>
+      </c>
+      <c r="L56">
+        <v>2.6043339336448001</v>
+      </c>
+      <c r="M56">
+        <v>3.9237042069999322</v>
+      </c>
+      <c r="N56">
+        <v>0.282288623388954</v>
+      </c>
+      <c r="O56">
+        <v>9.6152050517911911E-2</v>
+      </c>
+      <c r="P56">
+        <v>0.40203726390479827</v>
+      </c>
+      <c r="Q56">
+        <v>0.95057421258719033</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B57" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>0.92</v>
+      </c>
+      <c r="E57">
+        <v>0.85</v>
+      </c>
+      <c r="F57">
+        <v>0.94</v>
+      </c>
+      <c r="G57">
+        <v>0.91</v>
+      </c>
+      <c r="H57">
+        <v>0.92</v>
+      </c>
+      <c r="I57">
+        <v>0.93</v>
+      </c>
+      <c r="J57">
+        <v>0.94</v>
+      </c>
+      <c r="K57">
+        <v>0.85</v>
+      </c>
+      <c r="L57">
+        <v>0.75</v>
+      </c>
+      <c r="M57">
+        <v>0.84</v>
+      </c>
+      <c r="N57">
+        <v>0.95</v>
+      </c>
+      <c r="O57">
+        <v>0.92</v>
+      </c>
+      <c r="P57">
+        <v>0.93</v>
+      </c>
+      <c r="Q57">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58">
+        <v>0.78692349648720439</v>
+      </c>
+      <c r="E58">
+        <v>0.7172601933621553</v>
+      </c>
+      <c r="F58">
+        <v>0.8581158168758084</v>
+      </c>
+      <c r="G58">
+        <v>0.84736274410989176</v>
+      </c>
+      <c r="H58">
+        <v>0.80164753535356625</v>
+      </c>
+      <c r="I58">
+        <v>0.79771480599455757</v>
+      </c>
+      <c r="J58">
+        <v>0.80609380282625798</v>
+      </c>
+      <c r="K58">
+        <v>3.40483553946477</v>
+      </c>
+      <c r="L58">
+        <v>1.8317279302288678</v>
+      </c>
+      <c r="M58">
+        <v>3.2915617243746556</v>
+      </c>
+      <c r="N58">
+        <v>1.0381388983355859</v>
+      </c>
+      <c r="O58">
+        <v>0.87762036345457695</v>
+      </c>
+      <c r="P58">
+        <v>0.90033261412186871</v>
+      </c>
+      <c r="Q58">
+        <v>0.6826746030656361</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D6:AD6"/>
+    <mergeCell ref="D13:AD13"/>
+    <mergeCell ref="B31:Y31"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:P4"/>
+    <mergeCell ref="R4:AD4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="Y5:AD5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>